--- a/Vaccination_Analysis/world_vaccination.xlsx
+++ b/Vaccination_Analysis/world_vaccination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D563"/>
+  <dimension ref="A1:D572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34631</v>
+        <v>34954</v>
       </c>
       <c r="C13" t="n">
-        <v>28374</v>
+        <v>28606</v>
       </c>
       <c r="D13" t="n">
-        <v>7182</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="14">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39202</v>
+        <v>39526</v>
       </c>
       <c r="C14" t="n">
-        <v>32771</v>
+        <v>33004</v>
       </c>
       <c r="D14" t="n">
-        <v>7321</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="15">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1615879</v>
+        <v>1616214</v>
       </c>
       <c r="C15" t="n">
-        <v>107203</v>
+        <v>107444</v>
       </c>
       <c r="D15" t="n">
-        <v>7596</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="16">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1776778</v>
+        <v>1777131</v>
       </c>
       <c r="C16" t="n">
-        <v>262650</v>
+        <v>262907</v>
       </c>
       <c r="D16" t="n">
-        <v>8063</v>
+        <v>8155</v>
       </c>
     </row>
     <row r="17">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2052037</v>
+        <v>2052419</v>
       </c>
       <c r="C17" t="n">
-        <v>530996</v>
+        <v>531281</v>
       </c>
       <c r="D17" t="n">
-        <v>8833</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="18">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2469285</v>
+        <v>2469709</v>
       </c>
       <c r="C18" t="n">
-        <v>939336</v>
+        <v>939647</v>
       </c>
       <c r="D18" t="n">
-        <v>10059</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="19">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2652922</v>
+        <v>2653351</v>
       </c>
       <c r="C19" t="n">
-        <v>1118833</v>
+        <v>1119147</v>
       </c>
       <c r="D19" t="n">
-        <v>11140</v>
+        <v>11241</v>
       </c>
     </row>
     <row r="20">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2767147</v>
+        <v>2767608</v>
       </c>
       <c r="C20" t="n">
-        <v>1230933</v>
+        <v>1231278</v>
       </c>
       <c r="D20" t="n">
-        <v>11883</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="21">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3185176</v>
+        <v>3185679</v>
       </c>
       <c r="C21" t="n">
-        <v>1641580</v>
+        <v>1641962</v>
       </c>
       <c r="D21" t="n">
-        <v>13420</v>
+        <v>13523</v>
       </c>
     </row>
     <row r="22">
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3708750</v>
+        <v>3709292</v>
       </c>
       <c r="C22" t="n">
-        <v>2155906</v>
+        <v>2156318</v>
       </c>
       <c r="D22" t="n">
-        <v>16397</v>
+        <v>16505</v>
       </c>
     </row>
     <row r="23">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4395325</v>
+        <v>4395929</v>
       </c>
       <c r="C23" t="n">
-        <v>2830621</v>
+        <v>2831086</v>
       </c>
       <c r="D23" t="n">
-        <v>19473</v>
+        <v>19586</v>
       </c>
     </row>
     <row r="24">
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4690703</v>
+        <v>4691322</v>
       </c>
       <c r="C24" t="n">
-        <v>3121108</v>
+        <v>3121587</v>
       </c>
       <c r="D24" t="n">
-        <v>20570</v>
+        <v>20684</v>
       </c>
     </row>
     <row r="25">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4750184</v>
+        <v>4750811</v>
       </c>
       <c r="C25" t="n">
-        <v>3180436</v>
+        <v>3180921</v>
       </c>
       <c r="D25" t="n">
-        <v>20671</v>
+        <v>20786</v>
       </c>
     </row>
     <row r="26">
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4929604</v>
+        <v>4930256</v>
       </c>
       <c r="C26" t="n">
-        <v>3356382</v>
+        <v>3356886</v>
       </c>
       <c r="D26" t="n">
-        <v>21625</v>
+        <v>21742</v>
       </c>
     </row>
     <row r="27">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5189583</v>
+        <v>5190264</v>
       </c>
       <c r="C27" t="n">
-        <v>3613532</v>
+        <v>3614061</v>
       </c>
       <c r="D27" t="n">
-        <v>22364</v>
+        <v>22483</v>
       </c>
     </row>
     <row r="28">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5971694</v>
+        <v>5972430</v>
       </c>
       <c r="C28" t="n">
-        <v>4377179</v>
+        <v>4377755</v>
       </c>
       <c r="D28" t="n">
-        <v>26674</v>
+        <v>26798</v>
       </c>
     </row>
     <row r="29">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6977774</v>
+        <v>6978691</v>
       </c>
       <c r="C29" t="n">
-        <v>5363872</v>
+        <v>5364498</v>
       </c>
       <c r="D29" t="n">
-        <v>32022</v>
+        <v>32153</v>
       </c>
     </row>
     <row r="30">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8155946</v>
+        <v>8156921</v>
       </c>
       <c r="C30" t="n">
-        <v>6521309</v>
+        <v>6521977</v>
       </c>
       <c r="D30" t="n">
-        <v>40499</v>
+        <v>40640</v>
       </c>
     </row>
     <row r="31">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11861920</v>
+        <v>11862995</v>
       </c>
       <c r="C31" t="n">
-        <v>7217088</v>
+        <v>7217846</v>
       </c>
       <c r="D31" t="n">
-        <v>43711</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="32">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12106142</v>
+        <v>12107872</v>
       </c>
       <c r="C32" t="n">
-        <v>7450058</v>
+        <v>7451381</v>
       </c>
       <c r="D32" t="n">
-        <v>51438</v>
+        <v>51638</v>
       </c>
     </row>
     <row r="33">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13303004</v>
+        <v>13304863</v>
       </c>
       <c r="C33" t="n">
-        <v>8638299</v>
+        <v>8639705</v>
       </c>
       <c r="D33" t="n">
-        <v>54600</v>
+        <v>54840</v>
       </c>
     </row>
     <row r="34">
@@ -952,13 +952,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13706674</v>
+        <v>13708569</v>
       </c>
       <c r="C34" t="n">
-        <v>9034292</v>
+        <v>9035724</v>
       </c>
       <c r="D34" t="n">
-        <v>57161</v>
+        <v>57408</v>
       </c>
     </row>
     <row r="35">
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14850790</v>
+        <v>14852825</v>
       </c>
       <c r="C35" t="n">
-        <v>10119494</v>
+        <v>10121042</v>
       </c>
       <c r="D35" t="n">
-        <v>102337</v>
+        <v>102577</v>
       </c>
     </row>
     <row r="36">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16985776</v>
+        <v>16987933</v>
       </c>
       <c r="C36" t="n">
-        <v>11327762</v>
+        <v>11329405</v>
       </c>
       <c r="D36" t="n">
-        <v>189289</v>
+        <v>189553</v>
       </c>
     </row>
     <row r="37">
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18552131</v>
+        <v>18554384</v>
       </c>
       <c r="C37" t="n">
-        <v>12563883</v>
+        <v>12565579</v>
       </c>
       <c r="D37" t="n">
-        <v>362345</v>
+        <v>362643</v>
       </c>
     </row>
     <row r="38">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20343533</v>
+        <v>20346192</v>
       </c>
       <c r="C38" t="n">
-        <v>13990064</v>
+        <v>13991843</v>
       </c>
       <c r="D38" t="n">
-        <v>643634</v>
+        <v>643959</v>
       </c>
     </row>
     <row r="39">
@@ -1032,13 +1032,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22285644</v>
+        <v>22288691</v>
       </c>
       <c r="C39" t="n">
-        <v>15489725</v>
+        <v>15491593</v>
       </c>
       <c r="D39" t="n">
-        <v>1006619</v>
+        <v>1006976</v>
       </c>
     </row>
     <row r="40">
@@ -1048,13 +1048,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27754291</v>
+        <v>27757395</v>
       </c>
       <c r="C40" t="n">
-        <v>16199343</v>
+        <v>16201250</v>
       </c>
       <c r="D40" t="n">
-        <v>1136656</v>
+        <v>1137029</v>
       </c>
     </row>
     <row r="41">
@@ -1064,13 +1064,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30994460</v>
+        <v>30997612</v>
       </c>
       <c r="C41" t="n">
-        <v>19737152</v>
+        <v>19739093</v>
       </c>
       <c r="D41" t="n">
-        <v>1853921</v>
+        <v>1854304</v>
       </c>
     </row>
     <row r="42">
@@ -1080,13 +1080,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32862496</v>
+        <v>32865983</v>
       </c>
       <c r="C42" t="n">
-        <v>21134584</v>
+        <v>21136611</v>
       </c>
       <c r="D42" t="n">
-        <v>2218865</v>
+        <v>2219277</v>
       </c>
     </row>
     <row r="43">
@@ -1096,13 +1096,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35028242</v>
+        <v>35031886</v>
       </c>
       <c r="C43" t="n">
-        <v>22794825</v>
+        <v>22796952</v>
       </c>
       <c r="D43" t="n">
-        <v>2587658</v>
+        <v>2588092</v>
       </c>
     </row>
     <row r="44">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38775821</v>
+        <v>38779748</v>
       </c>
       <c r="C44" t="n">
-        <v>25055003</v>
+        <v>25057247</v>
       </c>
       <c r="D44" t="n">
-        <v>2934782</v>
+        <v>2935255</v>
       </c>
     </row>
     <row r="45">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41697856</v>
+        <v>41702133</v>
       </c>
       <c r="C45" t="n">
-        <v>27329629</v>
+        <v>27331980</v>
       </c>
       <c r="D45" t="n">
-        <v>3152846</v>
+        <v>3153355</v>
       </c>
     </row>
     <row r="46">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44653138</v>
+        <v>44657627</v>
       </c>
       <c r="C46" t="n">
-        <v>29630337</v>
+        <v>29632750</v>
       </c>
       <c r="D46" t="n">
-        <v>3324086</v>
+        <v>3324630</v>
       </c>
     </row>
     <row r="47">
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>46514991</v>
+        <v>46519548</v>
       </c>
       <c r="C47" t="n">
-        <v>31082181</v>
+        <v>31084634</v>
       </c>
       <c r="D47" t="n">
-        <v>3427747</v>
+        <v>3428304</v>
       </c>
     </row>
     <row r="48">
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>47725900</v>
+        <v>47730496</v>
       </c>
       <c r="C48" t="n">
-        <v>31997399</v>
+        <v>31999872</v>
       </c>
       <c r="D48" t="n">
-        <v>3587058</v>
+        <v>3587627</v>
       </c>
     </row>
     <row r="49">
@@ -1192,13 +1192,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50159124</v>
+        <v>50163925</v>
       </c>
       <c r="C49" t="n">
-        <v>33797481</v>
+        <v>33799974</v>
       </c>
       <c r="D49" t="n">
-        <v>3984330</v>
+        <v>3984921</v>
       </c>
     </row>
     <row r="50">
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>53149848</v>
+        <v>53154854</v>
       </c>
       <c r="C50" t="n">
-        <v>35962742</v>
+        <v>35965309</v>
       </c>
       <c r="D50" t="n">
-        <v>4567471</v>
+        <v>4568083</v>
       </c>
     </row>
     <row r="51">
@@ -1224,13 +1224,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>61454351</v>
+        <v>61459594</v>
       </c>
       <c r="C51" t="n">
-        <v>38341117</v>
+        <v>38343820</v>
       </c>
       <c r="D51" t="n">
-        <v>5267415</v>
+        <v>5268078</v>
       </c>
     </row>
     <row r="52">
@@ -1240,13 +1240,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>64984497</v>
+        <v>64990140</v>
       </c>
       <c r="C52" t="n">
-        <v>41094788</v>
+        <v>41097600</v>
       </c>
       <c r="D52" t="n">
-        <v>5858677</v>
+        <v>5859396</v>
       </c>
     </row>
     <row r="53">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>69071605</v>
+        <v>69077506</v>
       </c>
       <c r="C53" t="n">
-        <v>44543390</v>
+        <v>44546271</v>
       </c>
       <c r="D53" t="n">
-        <v>6277400</v>
+        <v>6278193</v>
       </c>
     </row>
     <row r="54">
@@ -1272,13 +1272,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>71559975</v>
+        <v>71566000</v>
       </c>
       <c r="C54" t="n">
-        <v>46496266</v>
+        <v>46499226</v>
       </c>
       <c r="D54" t="n">
-        <v>6588782</v>
+        <v>6589602</v>
       </c>
     </row>
     <row r="55">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>73096242</v>
+        <v>73102346</v>
       </c>
       <c r="C55" t="n">
-        <v>47595630</v>
+        <v>47598633</v>
       </c>
       <c r="D55" t="n">
-        <v>6931788</v>
+        <v>6932625</v>
       </c>
     </row>
     <row r="56">
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>76350011</v>
+        <v>76356247</v>
       </c>
       <c r="C56" t="n">
-        <v>49825545</v>
+        <v>49828593</v>
       </c>
       <c r="D56" t="n">
-        <v>7802822</v>
+        <v>7803727</v>
       </c>
     </row>
     <row r="57">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>87637154</v>
+        <v>87643581</v>
       </c>
       <c r="C57" t="n">
-        <v>52087728</v>
+        <v>52090858</v>
       </c>
       <c r="D57" t="n">
-        <v>8806944</v>
+        <v>8807926</v>
       </c>
     </row>
     <row r="58">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>91688504</v>
+        <v>91695237</v>
       </c>
       <c r="C58" t="n">
-        <v>54864566</v>
+        <v>54867783</v>
       </c>
       <c r="D58" t="n">
-        <v>9848046</v>
+        <v>9849109</v>
       </c>
     </row>
     <row r="59">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>96287130</v>
+        <v>96294236</v>
       </c>
       <c r="C59" t="n">
-        <v>58045589</v>
+        <v>58048897</v>
       </c>
       <c r="D59" t="n">
-        <v>10902503</v>
+        <v>10903655</v>
       </c>
     </row>
     <row r="60">
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100967308</v>
+        <v>100974605</v>
       </c>
       <c r="C60" t="n">
-        <v>61343709</v>
+        <v>61347087</v>
       </c>
       <c r="D60" t="n">
-        <v>11858462</v>
+        <v>11859690</v>
       </c>
     </row>
     <row r="61">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>103993918</v>
+        <v>104001358</v>
       </c>
       <c r="C61" t="n">
-        <v>63519409</v>
+        <v>63522845</v>
       </c>
       <c r="D61" t="n">
-        <v>12412405</v>
+        <v>12413674</v>
       </c>
     </row>
     <row r="62">
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>107091435</v>
+        <v>107098965</v>
       </c>
       <c r="C62" t="n">
-        <v>64601967</v>
+        <v>64605432</v>
       </c>
       <c r="D62" t="n">
-        <v>12895450</v>
+        <v>12896740</v>
       </c>
     </row>
     <row r="63">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>110498190</v>
+        <v>110506312</v>
       </c>
       <c r="C63" t="n">
-        <v>66639522</v>
+        <v>66643256</v>
       </c>
       <c r="D63" t="n">
-        <v>13901315</v>
+        <v>13902823</v>
       </c>
     </row>
     <row r="64">
@@ -1432,13 +1432,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>114285387</v>
+        <v>114293781</v>
       </c>
       <c r="C64" t="n">
-        <v>68934997</v>
+        <v>68938828</v>
       </c>
       <c r="D64" t="n">
-        <v>15083972</v>
+        <v>15085610</v>
       </c>
     </row>
     <row r="65">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>126279138</v>
+        <v>126287991</v>
       </c>
       <c r="C65" t="n">
-        <v>71925324</v>
+        <v>71929453</v>
       </c>
       <c r="D65" t="n">
-        <v>16513370</v>
+        <v>16515128</v>
       </c>
     </row>
     <row r="66">
@@ -1464,13 +1464,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>131632368</v>
+        <v>131642019</v>
       </c>
       <c r="C66" t="n">
-        <v>75327369</v>
+        <v>75331700</v>
       </c>
       <c r="D66" t="n">
-        <v>18061024</v>
+        <v>18063163</v>
       </c>
     </row>
     <row r="67">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>137113596</v>
+        <v>137123834</v>
       </c>
       <c r="C67" t="n">
-        <v>78953464</v>
+        <v>78958100</v>
       </c>
       <c r="D67" t="n">
-        <v>19602411</v>
+        <v>19604624</v>
       </c>
     </row>
     <row r="68">
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>140530415</v>
+        <v>140540750</v>
       </c>
       <c r="C68" t="n">
-        <v>81307845</v>
+        <v>81312485</v>
       </c>
       <c r="D68" t="n">
-        <v>20349501</v>
+        <v>20351767</v>
       </c>
     </row>
     <row r="69">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>142191601</v>
+        <v>142201987</v>
       </c>
       <c r="C69" t="n">
-        <v>82273178</v>
+        <v>82277816</v>
       </c>
       <c r="D69" t="n">
-        <v>20913181</v>
+        <v>20915487</v>
       </c>
     </row>
     <row r="70">
@@ -1528,13 +1528,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>146005027</v>
+        <v>146015564</v>
       </c>
       <c r="C70" t="n">
-        <v>84671822</v>
+        <v>84676570</v>
       </c>
       <c r="D70" t="n">
-        <v>22065324</v>
+        <v>22067622</v>
       </c>
     </row>
     <row r="71">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>159995093</v>
+        <v>160005951</v>
       </c>
       <c r="C71" t="n">
-        <v>87636061</v>
+        <v>87640882</v>
       </c>
       <c r="D71" t="n">
-        <v>23528839</v>
+        <v>23531329</v>
       </c>
     </row>
     <row r="72">
@@ -1560,13 +1560,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>165469018</v>
+        <v>165480582</v>
       </c>
       <c r="C72" t="n">
-        <v>91059974</v>
+        <v>91065219</v>
       </c>
       <c r="D72" t="n">
-        <v>25187580</v>
+        <v>25190302</v>
       </c>
     </row>
     <row r="73">
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>171061406</v>
+        <v>171073748</v>
       </c>
       <c r="C73" t="n">
-        <v>94552239</v>
+        <v>94557742</v>
       </c>
       <c r="D73" t="n">
-        <v>26980592</v>
+        <v>26983620</v>
       </c>
     </row>
     <row r="74">
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>177573422</v>
+        <v>177586421</v>
       </c>
       <c r="C74" t="n">
-        <v>101246253</v>
+        <v>101252078</v>
       </c>
       <c r="D74" t="n">
-        <v>29233671</v>
+        <v>29236780</v>
       </c>
     </row>
     <row r="75">
@@ -1608,13 +1608,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>181675408</v>
+        <v>181688557</v>
       </c>
       <c r="C75" t="n">
-        <v>103847716</v>
+        <v>103853594</v>
       </c>
       <c r="D75" t="n">
-        <v>30326954</v>
+        <v>30330114</v>
       </c>
     </row>
     <row r="76">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>183816913</v>
+        <v>183830087</v>
       </c>
       <c r="C76" t="n">
-        <v>105217611</v>
+        <v>105223518</v>
       </c>
       <c r="D76" t="n">
-        <v>31030557</v>
+        <v>31033703</v>
       </c>
     </row>
     <row r="77">
@@ -1640,13 +1640,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>188340908</v>
+        <v>188354128</v>
       </c>
       <c r="C77" t="n">
-        <v>108109214</v>
+        <v>108115121</v>
       </c>
       <c r="D77" t="n">
-        <v>32294800</v>
+        <v>32297942</v>
       </c>
     </row>
     <row r="78">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>193321042</v>
+        <v>193334308</v>
       </c>
       <c r="C78" t="n">
-        <v>110996989</v>
+        <v>111002943</v>
       </c>
       <c r="D78" t="n">
-        <v>34040080</v>
+        <v>34043186</v>
       </c>
     </row>
     <row r="79">
@@ -1672,13 +1672,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>199140466</v>
+        <v>199153989</v>
       </c>
       <c r="C79" t="n">
-        <v>114597419</v>
+        <v>114603451</v>
       </c>
       <c r="D79" t="n">
-        <v>36013820</v>
+        <v>36017032</v>
       </c>
     </row>
     <row r="80">
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>205630671</v>
+        <v>205644392</v>
       </c>
       <c r="C80" t="n">
-        <v>118450032</v>
+        <v>118456013</v>
       </c>
       <c r="D80" t="n">
-        <v>38003159</v>
+        <v>38006339</v>
       </c>
     </row>
     <row r="81">
@@ -1704,13 +1704,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>211427018</v>
+        <v>211441031</v>
       </c>
       <c r="C81" t="n">
-        <v>124092661</v>
+        <v>124098703</v>
       </c>
       <c r="D81" t="n">
-        <v>40499841</v>
+        <v>40503092</v>
       </c>
     </row>
     <row r="82">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>215609646</v>
+        <v>215623656</v>
       </c>
       <c r="C82" t="n">
-        <v>126801091</v>
+        <v>126807102</v>
       </c>
       <c r="D82" t="n">
-        <v>41852687</v>
+        <v>41855926</v>
       </c>
     </row>
     <row r="83">
@@ -1736,13 +1736,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>217796569</v>
+        <v>217810603</v>
       </c>
       <c r="C83" t="n">
-        <v>128146920</v>
+        <v>128152939</v>
       </c>
       <c r="D83" t="n">
-        <v>42669108</v>
+        <v>42672339</v>
       </c>
     </row>
     <row r="84">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>222111545</v>
+        <v>222125772</v>
       </c>
       <c r="C84" t="n">
-        <v>130771543</v>
+        <v>130777624</v>
       </c>
       <c r="D84" t="n">
-        <v>44216185</v>
+        <v>44219502</v>
       </c>
     </row>
     <row r="85">
@@ -1768,13 +1768,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>227737654</v>
+        <v>227752156</v>
       </c>
       <c r="C85" t="n">
-        <v>136677317</v>
+        <v>136683439</v>
       </c>
       <c r="D85" t="n">
-        <v>48365179</v>
+        <v>48368661</v>
       </c>
     </row>
     <row r="86">
@@ -1784,13 +1784,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>234307000</v>
+        <v>234321813</v>
       </c>
       <c r="C86" t="n">
-        <v>140862636</v>
+        <v>140868822</v>
       </c>
       <c r="D86" t="n">
-        <v>50568461</v>
+        <v>50572149</v>
       </c>
     </row>
     <row r="87">
@@ -1800,13 +1800,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>241586606</v>
+        <v>241601698</v>
       </c>
       <c r="C87" t="n">
-        <v>145356508</v>
+        <v>145362786</v>
       </c>
       <c r="D87" t="n">
-        <v>53129041</v>
+        <v>53132870</v>
       </c>
     </row>
     <row r="88">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>249067905</v>
+        <v>249083255</v>
       </c>
       <c r="C88" t="n">
-        <v>150027861</v>
+        <v>150034236</v>
       </c>
       <c r="D88" t="n">
-        <v>55783629</v>
+        <v>55787575</v>
       </c>
     </row>
     <row r="89">
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>254307886</v>
+        <v>254323346</v>
       </c>
       <c r="C89" t="n">
-        <v>153318189</v>
+        <v>153324606</v>
       </c>
       <c r="D89" t="n">
-        <v>57445513</v>
+        <v>57449485</v>
       </c>
     </row>
     <row r="90">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>268995159</v>
+        <v>269010711</v>
       </c>
       <c r="C90" t="n">
-        <v>155310114</v>
+        <v>155316546</v>
       </c>
       <c r="D90" t="n">
-        <v>58084869</v>
+        <v>58088874</v>
       </c>
     </row>
     <row r="91">
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>274592745</v>
+        <v>274609237</v>
       </c>
       <c r="C91" t="n">
-        <v>159144855</v>
+        <v>159151881</v>
       </c>
       <c r="D91" t="n">
-        <v>59650530</v>
+        <v>59654746</v>
       </c>
     </row>
     <row r="92">
@@ -1880,13 +1880,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>285858239</v>
+        <v>285875092</v>
       </c>
       <c r="C92" t="n">
-        <v>167200860</v>
+        <v>167208086</v>
       </c>
       <c r="D92" t="n">
-        <v>62614185</v>
+        <v>62618521</v>
       </c>
     </row>
     <row r="93">
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>294053556</v>
+        <v>294071033</v>
       </c>
       <c r="C93" t="n">
-        <v>172732723</v>
+        <v>172740118</v>
       </c>
       <c r="D93" t="n">
-        <v>65140004</v>
+        <v>65144708</v>
       </c>
     </row>
     <row r="94">
@@ -1912,13 +1912,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>303576758</v>
+        <v>303594786</v>
       </c>
       <c r="C94" t="n">
-        <v>179160965</v>
+        <v>179168440</v>
       </c>
       <c r="D94" t="n">
-        <v>67966470</v>
+        <v>67971596</v>
       </c>
     </row>
     <row r="95">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>312800299</v>
+        <v>312819155</v>
       </c>
       <c r="C95" t="n">
-        <v>185625569</v>
+        <v>185633467</v>
       </c>
       <c r="D95" t="n">
-        <v>70711000</v>
+        <v>70716451</v>
       </c>
     </row>
     <row r="96">
@@ -1944,13 +1944,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>319848312</v>
+        <v>319867300</v>
       </c>
       <c r="C96" t="n">
-        <v>190524476</v>
+        <v>190532428</v>
       </c>
       <c r="D96" t="n">
-        <v>72746334</v>
+        <v>72751817</v>
       </c>
     </row>
     <row r="97">
@@ -1960,13 +1960,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>323625700</v>
+        <v>323644696</v>
       </c>
       <c r="C97" t="n">
-        <v>193312493</v>
+        <v>193320445</v>
       </c>
       <c r="D97" t="n">
-        <v>73504308</v>
+        <v>73509767</v>
       </c>
     </row>
     <row r="98">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>331416888</v>
+        <v>331436005</v>
       </c>
       <c r="C98" t="n">
-        <v>199092396</v>
+        <v>199100366</v>
       </c>
       <c r="D98" t="n">
-        <v>75525522</v>
+        <v>75531027</v>
       </c>
     </row>
     <row r="99">
@@ -1992,13 +1992,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>339856527</v>
+        <v>339876572</v>
       </c>
       <c r="C99" t="n">
-        <v>205084982</v>
+        <v>205093500</v>
       </c>
       <c r="D99" t="n">
-        <v>77933789</v>
+        <v>77939934</v>
       </c>
     </row>
     <row r="100">
@@ -2008,13 +2008,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>349946126</v>
+        <v>349966343</v>
       </c>
       <c r="C100" t="n">
-        <v>212048807</v>
+        <v>212057301</v>
       </c>
       <c r="D100" t="n">
-        <v>81073087</v>
+        <v>81079481</v>
       </c>
     </row>
     <row r="101">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>359175548</v>
+        <v>359195849</v>
       </c>
       <c r="C101" t="n">
-        <v>217936119</v>
+        <v>217944637</v>
       </c>
       <c r="D101" t="n">
-        <v>84060777</v>
+        <v>84067187</v>
       </c>
     </row>
     <row r="102">
@@ -2040,13 +2040,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>369732873</v>
+        <v>369754251</v>
       </c>
       <c r="C102" t="n">
-        <v>225233706</v>
+        <v>225243116</v>
       </c>
       <c r="D102" t="n">
-        <v>87582706</v>
+        <v>87589252</v>
       </c>
     </row>
     <row r="103">
@@ -2056,13 +2056,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>377390085</v>
+        <v>377411495</v>
       </c>
       <c r="C103" t="n">
-        <v>231193212</v>
+        <v>231202654</v>
       </c>
       <c r="D103" t="n">
-        <v>89987930</v>
+        <v>89994442</v>
       </c>
     </row>
     <row r="104">
@@ -2072,13 +2072,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>393681201</v>
+        <v>393702346</v>
       </c>
       <c r="C104" t="n">
-        <v>234062661</v>
+        <v>234072132</v>
       </c>
       <c r="D104" t="n">
-        <v>90864620</v>
+        <v>90871136</v>
       </c>
     </row>
     <row r="105">
@@ -2088,13 +2088,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>403733756</v>
+        <v>403755169</v>
       </c>
       <c r="C105" t="n">
-        <v>241140017</v>
+        <v>241149664</v>
       </c>
       <c r="D105" t="n">
-        <v>93796087</v>
+        <v>93802647</v>
       </c>
     </row>
     <row r="106">
@@ -2104,13 +2104,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>413696559</v>
+        <v>413718200</v>
       </c>
       <c r="C106" t="n">
-        <v>247714401</v>
+        <v>247724221</v>
       </c>
       <c r="D106" t="n">
-        <v>96874932</v>
+        <v>96881525</v>
       </c>
     </row>
     <row r="107">
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>424603435</v>
+        <v>424625229</v>
       </c>
       <c r="C107" t="n">
-        <v>254722371</v>
+        <v>254732255</v>
       </c>
       <c r="D107" t="n">
-        <v>100704573</v>
+        <v>100711142</v>
       </c>
     </row>
     <row r="108">
@@ -2136,13 +2136,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>435191129</v>
+        <v>435213323</v>
       </c>
       <c r="C108" t="n">
-        <v>262030742</v>
+        <v>262041000</v>
       </c>
       <c r="D108" t="n">
-        <v>103823939</v>
+        <v>103830564</v>
       </c>
     </row>
     <row r="109">
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>448501789</v>
+        <v>448524184</v>
       </c>
       <c r="C109" t="n">
-        <v>271318548</v>
+        <v>271329069</v>
       </c>
       <c r="D109" t="n">
-        <v>107365213</v>
+        <v>107371807</v>
       </c>
     </row>
     <row r="110">
@@ -2168,13 +2168,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>467123424</v>
+        <v>467145807</v>
       </c>
       <c r="C110" t="n">
-        <v>278033442</v>
+        <v>278044029</v>
       </c>
       <c r="D110" t="n">
-        <v>109507731</v>
+        <v>109514229</v>
       </c>
     </row>
     <row r="111">
@@ -2184,13 +2184,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>471570142</v>
+        <v>471592514</v>
       </c>
       <c r="C111" t="n">
-        <v>281203184</v>
+        <v>281213811</v>
       </c>
       <c r="D111" t="n">
-        <v>110423601</v>
+        <v>110430014</v>
       </c>
     </row>
     <row r="112">
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>487415873</v>
+        <v>487437665</v>
       </c>
       <c r="C112" t="n">
-        <v>288874023</v>
+        <v>288884265</v>
       </c>
       <c r="D112" t="n">
-        <v>112875956</v>
+        <v>112882302</v>
       </c>
     </row>
     <row r="113">
@@ -2216,13 +2216,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>500249236</v>
+        <v>500267720</v>
       </c>
       <c r="C113" t="n">
-        <v>296174962</v>
+        <v>296181970</v>
       </c>
       <c r="D113" t="n">
-        <v>115676851</v>
+        <v>115683185</v>
       </c>
     </row>
     <row r="114">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>515792207</v>
+        <v>515808583</v>
       </c>
       <c r="C114" t="n">
-        <v>304979173</v>
+        <v>304984139</v>
       </c>
       <c r="D114" t="n">
-        <v>119333659</v>
+        <v>119339881</v>
       </c>
     </row>
     <row r="115">
@@ -2248,13 +2248,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>533404581</v>
+        <v>533419629</v>
       </c>
       <c r="C115" t="n">
-        <v>313137562</v>
+        <v>313141020</v>
       </c>
       <c r="D115" t="n">
-        <v>123093003</v>
+        <v>123099204</v>
       </c>
     </row>
     <row r="116">
@@ -2264,13 +2264,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>553227516</v>
+        <v>553241463</v>
       </c>
       <c r="C116" t="n">
-        <v>322721763</v>
+        <v>322724065</v>
       </c>
       <c r="D116" t="n">
-        <v>127111133</v>
+        <v>127117326</v>
       </c>
     </row>
     <row r="117">
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>567480521</v>
+        <v>567494509</v>
       </c>
       <c r="C117" t="n">
-        <v>329239282</v>
+        <v>329241656</v>
       </c>
       <c r="D117" t="n">
-        <v>129476018</v>
+        <v>129482168</v>
       </c>
     </row>
     <row r="118">
@@ -2296,13 +2296,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>576253425</v>
+        <v>576267446</v>
       </c>
       <c r="C118" t="n">
-        <v>332314196</v>
+        <v>332316588</v>
       </c>
       <c r="D118" t="n">
-        <v>130571215</v>
+        <v>130577339</v>
       </c>
     </row>
     <row r="119">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>592504515</v>
+        <v>592517299</v>
       </c>
       <c r="C119" t="n">
-        <v>339819638</v>
+        <v>339820705</v>
       </c>
       <c r="D119" t="n">
-        <v>134870385</v>
+        <v>134876544</v>
       </c>
     </row>
     <row r="120">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>608552407</v>
+        <v>608561138</v>
       </c>
       <c r="C120" t="n">
-        <v>347846550</v>
+        <v>347843373</v>
       </c>
       <c r="D120" t="n">
-        <v>138636615</v>
+        <v>138642747</v>
       </c>
     </row>
     <row r="121">
@@ -2344,13 +2344,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>628585057</v>
+        <v>628591091</v>
       </c>
       <c r="C121" t="n">
-        <v>358658478</v>
+        <v>358652263</v>
       </c>
       <c r="D121" t="n">
-        <v>143027480</v>
+        <v>143033800</v>
       </c>
     </row>
     <row r="122">
@@ -2360,13 +2360,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>650664273</v>
+        <v>650670094</v>
       </c>
       <c r="C122" t="n">
-        <v>368946927</v>
+        <v>368939583</v>
       </c>
       <c r="D122" t="n">
-        <v>147963064</v>
+        <v>147969958</v>
       </c>
     </row>
     <row r="123">
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>670827063</v>
+        <v>670833767</v>
       </c>
       <c r="C123" t="n">
-        <v>378325424</v>
+        <v>378317799</v>
       </c>
       <c r="D123" t="n">
-        <v>151493644</v>
+        <v>151501541</v>
       </c>
     </row>
     <row r="124">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>683383953</v>
+        <v>683390608</v>
       </c>
       <c r="C124" t="n">
-        <v>385401265</v>
+        <v>385393805</v>
       </c>
       <c r="D124" t="n">
-        <v>154086022</v>
+        <v>154093552</v>
       </c>
     </row>
     <row r="125">
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>693364015</v>
+        <v>693370504</v>
       </c>
       <c r="C125" t="n">
-        <v>390788199</v>
+        <v>390780817</v>
       </c>
       <c r="D125" t="n">
-        <v>155259654</v>
+        <v>155266885</v>
       </c>
     </row>
     <row r="126">
@@ -2424,13 +2424,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>708161274</v>
+        <v>708168480</v>
       </c>
       <c r="C126" t="n">
-        <v>399345893</v>
+        <v>399339077</v>
       </c>
       <c r="D126" t="n">
-        <v>158671344</v>
+        <v>158678577</v>
       </c>
     </row>
     <row r="127">
@@ -2440,13 +2440,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>725670009</v>
+        <v>725678619</v>
       </c>
       <c r="C127" t="n">
-        <v>409909108</v>
+        <v>409903129</v>
       </c>
       <c r="D127" t="n">
-        <v>163088151</v>
+        <v>163095805</v>
       </c>
     </row>
     <row r="128">
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>745533302</v>
+        <v>745543857</v>
       </c>
       <c r="C128" t="n">
-        <v>421040392</v>
+        <v>421037107</v>
       </c>
       <c r="D128" t="n">
-        <v>168389178</v>
+        <v>168395990</v>
       </c>
     </row>
     <row r="129">
@@ -2472,13 +2472,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>769491461</v>
+        <v>769501866</v>
       </c>
       <c r="C129" t="n">
-        <v>433753422</v>
+        <v>433750199</v>
       </c>
       <c r="D129" t="n">
-        <v>173912818</v>
+        <v>173919389</v>
       </c>
     </row>
     <row r="130">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>792161446</v>
+        <v>792170780</v>
       </c>
       <c r="C130" t="n">
-        <v>445098180</v>
+        <v>445093403</v>
       </c>
       <c r="D130" t="n">
-        <v>179664045</v>
+        <v>179670965</v>
       </c>
     </row>
     <row r="131">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>808000636</v>
+        <v>808009649</v>
       </c>
       <c r="C131" t="n">
-        <v>453895249</v>
+        <v>453890361</v>
       </c>
       <c r="D131" t="n">
-        <v>183669133</v>
+        <v>183675743</v>
       </c>
     </row>
     <row r="132">
@@ -2520,13 +2520,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>819284624</v>
+        <v>819293162</v>
       </c>
       <c r="C132" t="n">
-        <v>460102651</v>
+        <v>460097629</v>
       </c>
       <c r="D132" t="n">
-        <v>185928108</v>
+        <v>185934406</v>
       </c>
     </row>
     <row r="133">
@@ -2536,13 +2536,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>837961646</v>
+        <v>837969414</v>
       </c>
       <c r="C133" t="n">
-        <v>469906885</v>
+        <v>469901060</v>
       </c>
       <c r="D133" t="n">
-        <v>190346796</v>
+        <v>190353054</v>
       </c>
     </row>
     <row r="134">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>855385709</v>
+        <v>855393454</v>
       </c>
       <c r="C134" t="n">
-        <v>479111876</v>
+        <v>479105812</v>
       </c>
       <c r="D134" t="n">
-        <v>194798369</v>
+        <v>194804773</v>
       </c>
     </row>
     <row r="135">
@@ -2568,13 +2568,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>874684542</v>
+        <v>874692332</v>
       </c>
       <c r="C135" t="n">
-        <v>489403099</v>
+        <v>489396667</v>
       </c>
       <c r="D135" t="n">
-        <v>200171870</v>
+        <v>200178558</v>
       </c>
     </row>
     <row r="136">
@@ -2584,13 +2584,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>893582953</v>
+        <v>893590699</v>
       </c>
       <c r="C136" t="n">
-        <v>498313895</v>
+        <v>498306295</v>
       </c>
       <c r="D136" t="n">
-        <v>205600355</v>
+        <v>205608009</v>
       </c>
     </row>
     <row r="137">
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>912162754</v>
+        <v>912169740</v>
       </c>
       <c r="C137" t="n">
-        <v>507429299</v>
+        <v>507420317</v>
       </c>
       <c r="D137" t="n">
-        <v>211016671</v>
+        <v>211024662</v>
       </c>
     </row>
     <row r="138">
@@ -2616,13 +2616,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>925549195</v>
+        <v>925555755</v>
       </c>
       <c r="C138" t="n">
-        <v>514497293</v>
+        <v>514488052</v>
       </c>
       <c r="D138" t="n">
-        <v>214663287</v>
+        <v>214671065</v>
       </c>
     </row>
     <row r="139">
@@ -2632,13 +2632,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>935777226</v>
+        <v>935783667</v>
       </c>
       <c r="C139" t="n">
-        <v>519581772</v>
+        <v>519572503</v>
       </c>
       <c r="D139" t="n">
-        <v>217294653</v>
+        <v>217302284</v>
       </c>
     </row>
     <row r="140">
@@ -2648,13 +2648,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>951523601</v>
+        <v>951528542</v>
       </c>
       <c r="C140" t="n">
-        <v>527325883</v>
+        <v>527315140</v>
       </c>
       <c r="D140" t="n">
-        <v>222100017</v>
+        <v>222107485</v>
       </c>
     </row>
     <row r="141">
@@ -2664,13 +2664,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>966204638</v>
+        <v>966208460</v>
       </c>
       <c r="C141" t="n">
-        <v>534892210</v>
+        <v>534880115</v>
       </c>
       <c r="D141" t="n">
-        <v>228412955</v>
+        <v>228420537</v>
       </c>
     </row>
     <row r="142">
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>985487332</v>
+        <v>985490246</v>
       </c>
       <c r="C142" t="n">
-        <v>543303374</v>
+        <v>543290152</v>
       </c>
       <c r="D142" t="n">
-        <v>233719698</v>
+        <v>233727368</v>
       </c>
     </row>
     <row r="143">
@@ -2696,13 +2696,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1007868532</v>
+        <v>1007869575</v>
       </c>
       <c r="C143" t="n">
-        <v>551981458</v>
+        <v>551966189</v>
       </c>
       <c r="D143" t="n">
-        <v>240247457</v>
+        <v>240255203</v>
       </c>
     </row>
     <row r="144">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1026733701</v>
+        <v>1026732899</v>
       </c>
       <c r="C144" t="n">
-        <v>560006903</v>
+        <v>559989964</v>
       </c>
       <c r="D144" t="n">
-        <v>245885358</v>
+        <v>245892819</v>
       </c>
     </row>
     <row r="145">
@@ -2728,13 +2728,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1039184766</v>
+        <v>1039183467</v>
       </c>
       <c r="C145" t="n">
-        <v>564803750</v>
+        <v>564786495</v>
       </c>
       <c r="D145" t="n">
-        <v>249361768</v>
+        <v>249368949</v>
       </c>
     </row>
     <row r="146">
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1056170757</v>
+        <v>1056169185</v>
       </c>
       <c r="C146" t="n">
-        <v>572599534</v>
+        <v>572582190</v>
       </c>
       <c r="D146" t="n">
-        <v>253627968</v>
+        <v>253634910</v>
       </c>
     </row>
     <row r="147">
@@ -2760,13 +2760,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1073402872</v>
+        <v>1073400335</v>
       </c>
       <c r="C147" t="n">
-        <v>579601769</v>
+        <v>579583263</v>
       </c>
       <c r="D147" t="n">
-        <v>259042265</v>
+        <v>259049253</v>
       </c>
     </row>
     <row r="148">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1094322393</v>
+        <v>1094319006</v>
       </c>
       <c r="C148" t="n">
-        <v>587389608</v>
+        <v>587371159</v>
       </c>
       <c r="D148" t="n">
-        <v>265421534</v>
+        <v>265427001</v>
       </c>
     </row>
     <row r="149">
@@ -2792,13 +2792,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1120267155</v>
+        <v>1120262396</v>
       </c>
       <c r="C149" t="n">
-        <v>597827186</v>
+        <v>597807433</v>
       </c>
       <c r="D149" t="n">
-        <v>272719018</v>
+        <v>272723493</v>
       </c>
     </row>
     <row r="150">
@@ -2808,13 +2808,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1144956787</v>
+        <v>1144948466</v>
       </c>
       <c r="C150" t="n">
-        <v>606737780</v>
+        <v>606714628</v>
       </c>
       <c r="D150" t="n">
-        <v>280330688</v>
+        <v>280333974</v>
       </c>
     </row>
     <row r="151">
@@ -2824,13 +2824,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1171054486</v>
+        <v>1171042248</v>
       </c>
       <c r="C151" t="n">
-        <v>614743657</v>
+        <v>614716496</v>
       </c>
       <c r="D151" t="n">
-        <v>286693350</v>
+        <v>286695695</v>
       </c>
     </row>
     <row r="152">
@@ -2840,13 +2840,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1185046896</v>
+        <v>1185034625</v>
       </c>
       <c r="C152" t="n">
-        <v>619634280</v>
+        <v>619606922</v>
       </c>
       <c r="D152" t="n">
-        <v>290370083</v>
+        <v>290369745</v>
       </c>
     </row>
     <row r="153">
@@ -2856,13 +2856,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1196104485</v>
+        <v>1196091936</v>
       </c>
       <c r="C153" t="n">
-        <v>623113908</v>
+        <v>623086445</v>
       </c>
       <c r="D153" t="n">
-        <v>292983138</v>
+        <v>292980803</v>
       </c>
     </row>
     <row r="154">
@@ -2872,13 +2872,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1210867500</v>
+        <v>1210854084</v>
       </c>
       <c r="C154" t="n">
-        <v>628472929</v>
+        <v>628444142</v>
       </c>
       <c r="D154" t="n">
-        <v>297544403</v>
+        <v>297540746</v>
       </c>
     </row>
     <row r="155">
@@ -2888,13 +2888,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1230451910</v>
+        <v>1230436528</v>
       </c>
       <c r="C155" t="n">
-        <v>635730883</v>
+        <v>635702341</v>
       </c>
       <c r="D155" t="n">
-        <v>304286994</v>
+        <v>304277961</v>
       </c>
     </row>
     <row r="156">
@@ -2904,13 +2904,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1251093258</v>
+        <v>1251077300</v>
       </c>
       <c r="C156" t="n">
-        <v>643921768</v>
+        <v>643893941</v>
       </c>
       <c r="D156" t="n">
-        <v>311812198</v>
+        <v>311797166</v>
       </c>
     </row>
     <row r="157">
@@ -2920,13 +2920,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1275085181</v>
+        <v>1275066784</v>
       </c>
       <c r="C157" t="n">
-        <v>652433246</v>
+        <v>652404189</v>
       </c>
       <c r="D157" t="n">
-        <v>318997750</v>
+        <v>318976849</v>
       </c>
     </row>
     <row r="158">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1302769709</v>
+        <v>1302748422</v>
       </c>
       <c r="C158" t="n">
-        <v>661787640</v>
+        <v>661756407</v>
       </c>
       <c r="D158" t="n">
-        <v>326813295</v>
+        <v>326787078</v>
       </c>
     </row>
     <row r="159">
@@ -2952,13 +2952,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1322514674</v>
+        <v>1322493006</v>
       </c>
       <c r="C159" t="n">
-        <v>667238588</v>
+        <v>667207020</v>
       </c>
       <c r="D159" t="n">
-        <v>331649454</v>
+        <v>331621448</v>
       </c>
     </row>
     <row r="160">
@@ -2968,13 +2968,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1336288086</v>
+        <v>1336266185</v>
       </c>
       <c r="C160" t="n">
-        <v>671523096</v>
+        <v>671491548</v>
       </c>
       <c r="D160" t="n">
-        <v>334276631</v>
+        <v>334247292</v>
       </c>
     </row>
     <row r="161">
@@ -2984,13 +2984,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1358767400</v>
+        <v>1358743918</v>
       </c>
       <c r="C161" t="n">
-        <v>679287366</v>
+        <v>679254668</v>
       </c>
       <c r="D161" t="n">
-        <v>339885104</v>
+        <v>339851093</v>
       </c>
     </row>
     <row r="162">
@@ -3000,13 +3000,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1383665940</v>
+        <v>1383641256</v>
       </c>
       <c r="C162" t="n">
-        <v>688478457</v>
+        <v>688447016</v>
       </c>
       <c r="D162" t="n">
-        <v>347379479</v>
+        <v>347339178</v>
       </c>
     </row>
     <row r="163">
@@ -3016,13 +3016,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1410563054</v>
+        <v>1410534915</v>
       </c>
       <c r="C163" t="n">
-        <v>697295419</v>
+        <v>697263063</v>
       </c>
       <c r="D163" t="n">
-        <v>354055314</v>
+        <v>354006690</v>
       </c>
     </row>
     <row r="164">
@@ -3032,13 +3032,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1437164345</v>
+        <v>1437136251</v>
       </c>
       <c r="C164" t="n">
-        <v>704978968</v>
+        <v>704946637</v>
       </c>
       <c r="D164" t="n">
-        <v>360282455</v>
+        <v>360231105</v>
       </c>
     </row>
     <row r="165">
@@ -3048,13 +3048,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1463830140</v>
+        <v>1463801663</v>
       </c>
       <c r="C165" t="n">
-        <v>712614003</v>
+        <v>712581110</v>
       </c>
       <c r="D165" t="n">
-        <v>365871319</v>
+        <v>365812060</v>
       </c>
     </row>
     <row r="166">
@@ -3064,13 +3064,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1487256376</v>
+        <v>1487228079</v>
       </c>
       <c r="C166" t="n">
-        <v>719446793</v>
+        <v>719413929</v>
       </c>
       <c r="D166" t="n">
-        <v>370056135</v>
+        <v>369992456</v>
       </c>
     </row>
     <row r="167">
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1509533581</v>
+        <v>1509504777</v>
       </c>
       <c r="C167" t="n">
-        <v>724882179</v>
+        <v>724849017</v>
       </c>
       <c r="D167" t="n">
-        <v>373044199</v>
+        <v>372975499</v>
       </c>
     </row>
     <row r="168">
@@ -3096,13 +3096,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1536572334</v>
+        <v>1536542699</v>
       </c>
       <c r="C168" t="n">
-        <v>732426733</v>
+        <v>732392721</v>
       </c>
       <c r="D168" t="n">
-        <v>377520454</v>
+        <v>377441774</v>
       </c>
     </row>
     <row r="169">
@@ -3112,13 +3112,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1565172932</v>
+        <v>1565144924</v>
       </c>
       <c r="C169" t="n">
-        <v>741545479</v>
+        <v>741512582</v>
       </c>
       <c r="D169" t="n">
-        <v>383244732</v>
+        <v>383158659</v>
       </c>
     </row>
     <row r="170">
@@ -3128,13 +3128,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1593221914</v>
+        <v>1593194933</v>
       </c>
       <c r="C170" t="n">
-        <v>750180855</v>
+        <v>750147913</v>
       </c>
       <c r="D170" t="n">
-        <v>388853025</v>
+        <v>388755729</v>
       </c>
     </row>
     <row r="171">
@@ -3144,13 +3144,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1627128592</v>
+        <v>1627101526</v>
       </c>
       <c r="C171" t="n">
-        <v>760375513</v>
+        <v>760342383</v>
       </c>
       <c r="D171" t="n">
-        <v>395078275</v>
+        <v>394970539</v>
       </c>
     </row>
     <row r="172">
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1658653243</v>
+        <v>1658623731</v>
       </c>
       <c r="C172" t="n">
-        <v>769197947</v>
+        <v>769163219</v>
       </c>
       <c r="D172" t="n">
-        <v>401445609</v>
+        <v>401325361</v>
       </c>
     </row>
     <row r="173">
@@ -3176,13 +3176,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1686407869</v>
+        <v>1686378075</v>
       </c>
       <c r="C173" t="n">
-        <v>778198865</v>
+        <v>778164065</v>
       </c>
       <c r="D173" t="n">
-        <v>406412386</v>
+        <v>406278065</v>
       </c>
     </row>
     <row r="174">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1708807867</v>
+        <v>1708777847</v>
       </c>
       <c r="C174" t="n">
-        <v>783882400</v>
+        <v>783847570</v>
       </c>
       <c r="D174" t="n">
-        <v>409450337</v>
+        <v>409307119</v>
       </c>
     </row>
     <row r="175">
@@ -3208,13 +3208,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1738310205</v>
+        <v>1738280115</v>
       </c>
       <c r="C175" t="n">
-        <v>793130386</v>
+        <v>793095511</v>
       </c>
       <c r="D175" t="n">
-        <v>413441914</v>
+        <v>413290589</v>
       </c>
     </row>
     <row r="176">
@@ -3224,13 +3224,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1771232063</v>
+        <v>1771203182</v>
       </c>
       <c r="C176" t="n">
-        <v>801398541</v>
+        <v>801364198</v>
       </c>
       <c r="D176" t="n">
-        <v>418340988</v>
+        <v>418181183</v>
       </c>
     </row>
     <row r="177">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1807342625</v>
+        <v>1807318038</v>
       </c>
       <c r="C177" t="n">
-        <v>811783630</v>
+        <v>811751128</v>
       </c>
       <c r="D177" t="n">
-        <v>423810074</v>
+        <v>423643361</v>
       </c>
     </row>
     <row r="178">
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1840501440</v>
+        <v>1840477387</v>
       </c>
       <c r="C178" t="n">
-        <v>821691319</v>
+        <v>821659112</v>
       </c>
       <c r="D178" t="n">
-        <v>429282053</v>
+        <v>429105867</v>
       </c>
     </row>
     <row r="179">
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1875218359</v>
+        <v>1875192273</v>
       </c>
       <c r="C179" t="n">
-        <v>832151878</v>
+        <v>832118738</v>
       </c>
       <c r="D179" t="n">
-        <v>435135492</v>
+        <v>434947078</v>
       </c>
     </row>
     <row r="180">
@@ -3288,13 +3288,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1907285614</v>
+        <v>1907259479</v>
       </c>
       <c r="C180" t="n">
-        <v>842269251</v>
+        <v>842236183</v>
       </c>
       <c r="D180" t="n">
-        <v>439176097</v>
+        <v>438976609</v>
       </c>
     </row>
     <row r="181">
@@ -3304,13 +3304,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1934650312</v>
+        <v>1934623933</v>
       </c>
       <c r="C181" t="n">
-        <v>848440528</v>
+        <v>848407297</v>
       </c>
       <c r="D181" t="n">
-        <v>442371516</v>
+        <v>442165199</v>
       </c>
     </row>
     <row r="182">
@@ -3320,13 +3320,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1971816594</v>
+        <v>1971790126</v>
       </c>
       <c r="C182" t="n">
-        <v>856935917</v>
+        <v>856902898</v>
       </c>
       <c r="D182" t="n">
-        <v>447151370</v>
+        <v>446938649</v>
       </c>
     </row>
     <row r="183">
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2010731235</v>
+        <v>2010706064</v>
       </c>
       <c r="C183" t="n">
-        <v>868158228</v>
+        <v>868125797</v>
       </c>
       <c r="D183" t="n">
-        <v>453662045</v>
+        <v>453444043</v>
       </c>
     </row>
     <row r="184">
@@ -3352,13 +3352,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2051322127</v>
+        <v>2051299234</v>
       </c>
       <c r="C184" t="n">
-        <v>879972408</v>
+        <v>879941281</v>
       </c>
       <c r="D184" t="n">
-        <v>459863658</v>
+        <v>459639316</v>
       </c>
     </row>
     <row r="185">
@@ -3368,13 +3368,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2086319920</v>
+        <v>2086299586</v>
       </c>
       <c r="C185" t="n">
-        <v>890721330</v>
+        <v>890692274</v>
       </c>
       <c r="D185" t="n">
-        <v>465384037</v>
+        <v>465153291</v>
       </c>
     </row>
     <row r="186">
@@ -3384,13 +3384,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2126770778</v>
+        <v>2126748077</v>
       </c>
       <c r="C186" t="n">
-        <v>904144609</v>
+        <v>904113551</v>
       </c>
       <c r="D186" t="n">
-        <v>471645125</v>
+        <v>471408099</v>
       </c>
     </row>
     <row r="187">
@@ -3400,13 +3400,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2159052690</v>
+        <v>2159029758</v>
       </c>
       <c r="C187" t="n">
-        <v>913037449</v>
+        <v>913006118</v>
       </c>
       <c r="D187" t="n">
-        <v>476800233</v>
+        <v>476554960</v>
       </c>
     </row>
     <row r="188">
@@ -3416,13 +3416,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2185121043</v>
+        <v>2185097306</v>
       </c>
       <c r="C188" t="n">
-        <v>920549090</v>
+        <v>920517141</v>
       </c>
       <c r="D188" t="n">
-        <v>480728495</v>
+        <v>480474409</v>
       </c>
     </row>
     <row r="189">
@@ -3432,13 +3432,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2216511657</v>
+        <v>2216487474</v>
       </c>
       <c r="C189" t="n">
-        <v>930853227</v>
+        <v>930820810</v>
       </c>
       <c r="D189" t="n">
-        <v>485830860</v>
+        <v>485573596</v>
       </c>
     </row>
     <row r="190">
@@ -3448,13 +3448,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2251670533</v>
+        <v>2251647613</v>
       </c>
       <c r="C190" t="n">
-        <v>944646745</v>
+        <v>944614354</v>
       </c>
       <c r="D190" t="n">
-        <v>492840346</v>
+        <v>492580186</v>
       </c>
     </row>
     <row r="191">
@@ -3464,13 +3464,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2288733161</v>
+        <v>2288711867</v>
       </c>
       <c r="C191" t="n">
-        <v>958434495</v>
+        <v>958402133</v>
       </c>
       <c r="D191" t="n">
-        <v>500140195</v>
+        <v>499873407</v>
       </c>
     </row>
     <row r="192">
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2327778897</v>
+        <v>2327757448</v>
       </c>
       <c r="C192" t="n">
-        <v>1592394766</v>
+        <v>1592362035</v>
       </c>
       <c r="D192" t="n">
-        <v>506983750</v>
+        <v>506710983</v>
       </c>
     </row>
     <row r="193">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2365834745</v>
+        <v>2365809758</v>
       </c>
       <c r="C193" t="n">
-        <v>1605224920</v>
+        <v>1605190223</v>
       </c>
       <c r="D193" t="n">
-        <v>514168988</v>
+        <v>513884507</v>
       </c>
     </row>
     <row r="194">
@@ -3512,13 +3512,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2396532145</v>
+        <v>2396507006</v>
       </c>
       <c r="C194" t="n">
-        <v>1615835235</v>
+        <v>1615800751</v>
       </c>
       <c r="D194" t="n">
-        <v>519577565</v>
+        <v>519285355</v>
       </c>
     </row>
     <row r="195">
@@ -3528,13 +3528,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2423605226</v>
+        <v>2423579294</v>
       </c>
       <c r="C195" t="n">
-        <v>1624325759</v>
+        <v>1624290900</v>
       </c>
       <c r="D195" t="n">
-        <v>524063961</v>
+        <v>523765874</v>
       </c>
     </row>
     <row r="196">
@@ -3544,13 +3544,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2452004948</v>
+        <v>2451977948</v>
       </c>
       <c r="C196" t="n">
-        <v>1635138231</v>
+        <v>1635103018</v>
       </c>
       <c r="D196" t="n">
-        <v>530393370</v>
+        <v>530090269</v>
       </c>
     </row>
     <row r="197">
@@ -3560,13 +3560,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2491478509</v>
+        <v>2491454108</v>
       </c>
       <c r="C197" t="n">
-        <v>1647905872</v>
+        <v>1647871657</v>
       </c>
       <c r="D197" t="n">
-        <v>538073123</v>
+        <v>537768903</v>
       </c>
     </row>
     <row r="198">
@@ -3576,13 +3576,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2532942769</v>
+        <v>2532920359</v>
       </c>
       <c r="C198" t="n">
-        <v>1660453653</v>
+        <v>1660420022</v>
       </c>
       <c r="D198" t="n">
-        <v>545511845</v>
+        <v>545204120</v>
       </c>
     </row>
     <row r="199">
@@ -3592,13 +3592,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2578159288</v>
+        <v>2578136910</v>
       </c>
       <c r="C199" t="n">
-        <v>1676018342</v>
+        <v>1675984678</v>
       </c>
       <c r="D199" t="n">
-        <v>553273508</v>
+        <v>552962099</v>
       </c>
     </row>
     <row r="200">
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2622836001</v>
+        <v>2622810558</v>
       </c>
       <c r="C200" t="n">
-        <v>1689340209</v>
+        <v>1689305358</v>
       </c>
       <c r="D200" t="n">
-        <v>560598935</v>
+        <v>560281149</v>
       </c>
     </row>
     <row r="201">
@@ -3624,13 +3624,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2660204811</v>
+        <v>2660179356</v>
       </c>
       <c r="C201" t="n">
-        <v>1700258274</v>
+        <v>1700223548</v>
       </c>
       <c r="D201" t="n">
-        <v>566489256</v>
+        <v>566168609</v>
       </c>
     </row>
     <row r="202">
@@ -3640,13 +3640,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2693543726</v>
+        <v>2693518032</v>
       </c>
       <c r="C202" t="n">
-        <v>1710039453</v>
+        <v>1710004590</v>
       </c>
       <c r="D202" t="n">
-        <v>571266546</v>
+        <v>570941331</v>
       </c>
     </row>
     <row r="203">
@@ -3656,13 +3656,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2736283767</v>
+        <v>2736257344</v>
       </c>
       <c r="C203" t="n">
-        <v>1726941130</v>
+        <v>1726905988</v>
       </c>
       <c r="D203" t="n">
-        <v>577657756</v>
+        <v>577329750</v>
       </c>
     </row>
     <row r="204">
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2780205855</v>
+        <v>2780180629</v>
       </c>
       <c r="C204" t="n">
-        <v>1741329345</v>
+        <v>1741294407</v>
       </c>
       <c r="D204" t="n">
-        <v>585380289</v>
+        <v>585048894</v>
       </c>
     </row>
     <row r="205">
@@ -3688,13 +3688,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2823857681</v>
+        <v>2823833484</v>
       </c>
       <c r="C205" t="n">
-        <v>1753212760</v>
+        <v>1753178434</v>
       </c>
       <c r="D205" t="n">
-        <v>592755061</v>
+        <v>592418398</v>
       </c>
     </row>
     <row r="206">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2872186115</v>
+        <v>2872160970</v>
       </c>
       <c r="C206" t="n">
-        <v>1768735423</v>
+        <v>1768701231</v>
       </c>
       <c r="D206" t="n">
-        <v>601013194</v>
+        <v>600668449</v>
       </c>
     </row>
     <row r="207">
@@ -3720,13 +3720,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2918875960</v>
+        <v>2918848102</v>
       </c>
       <c r="C207" t="n">
-        <v>1783837665</v>
+        <v>1783802319</v>
       </c>
       <c r="D207" t="n">
-        <v>608774730</v>
+        <v>608418133</v>
       </c>
     </row>
     <row r="208">
@@ -3736,13 +3736,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2960893815</v>
+        <v>2960866255</v>
       </c>
       <c r="C208" t="n">
-        <v>1797560113</v>
+        <v>1797525181</v>
       </c>
       <c r="D208" t="n">
-        <v>615610265</v>
+        <v>615249016</v>
       </c>
     </row>
     <row r="209">
@@ -3752,13 +3752,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2995860045</v>
+        <v>2995832291</v>
       </c>
       <c r="C209" t="n">
-        <v>1822521847</v>
+        <v>1822486793</v>
       </c>
       <c r="D209" t="n">
-        <v>622620743</v>
+        <v>622258076</v>
       </c>
     </row>
     <row r="210">
@@ -3768,13 +3768,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3034170561</v>
+        <v>3034142337</v>
       </c>
       <c r="C210" t="n">
-        <v>1832898313</v>
+        <v>1832862798</v>
       </c>
       <c r="D210" t="n">
-        <v>629733545</v>
+        <v>629366248</v>
       </c>
     </row>
     <row r="211">
@@ -3784,13 +3784,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3075833934</v>
+        <v>3075807084</v>
       </c>
       <c r="C211" t="n">
-        <v>1846632292</v>
+        <v>1846597288</v>
       </c>
       <c r="D211" t="n">
-        <v>639008174</v>
+        <v>638637239</v>
       </c>
     </row>
     <row r="212">
@@ -3800,13 +3800,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3114159087</v>
+        <v>3114134395</v>
       </c>
       <c r="C212" t="n">
-        <v>1857781182</v>
+        <v>1857746893</v>
       </c>
       <c r="D212" t="n">
-        <v>647054051</v>
+        <v>646680534</v>
       </c>
     </row>
     <row r="213">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3158096122</v>
+        <v>3158071251</v>
       </c>
       <c r="C213" t="n">
-        <v>1874861685</v>
+        <v>1874828072</v>
       </c>
       <c r="D213" t="n">
-        <v>655198552</v>
+        <v>654819729</v>
       </c>
     </row>
     <row r="214">
@@ -3832,13 +3832,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3194375386</v>
+        <v>3194349107</v>
       </c>
       <c r="C214" t="n">
-        <v>1884618740</v>
+        <v>1884584620</v>
       </c>
       <c r="D214" t="n">
-        <v>662554596</v>
+        <v>662168804</v>
       </c>
     </row>
     <row r="215">
@@ -3848,13 +3848,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3228494836</v>
+        <v>3228469383</v>
       </c>
       <c r="C215" t="n">
-        <v>1898015126</v>
+        <v>1897981411</v>
       </c>
       <c r="D215" t="n">
-        <v>671352231</v>
+        <v>670956077</v>
       </c>
     </row>
     <row r="216">
@@ -3864,13 +3864,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3253400239</v>
+        <v>3253375315</v>
       </c>
       <c r="C216" t="n">
-        <v>1907585594</v>
+        <v>1907552375</v>
       </c>
       <c r="D216" t="n">
-        <v>676976505</v>
+        <v>676573071</v>
       </c>
     </row>
     <row r="217">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3286097817</v>
+        <v>3286072609</v>
       </c>
       <c r="C217" t="n">
-        <v>1921389554</v>
+        <v>1921356209</v>
       </c>
       <c r="D217" t="n">
-        <v>687478165</v>
+        <v>687069985</v>
       </c>
     </row>
     <row r="218">
@@ -3896,13 +3896,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3319013959</v>
+        <v>3318990862</v>
       </c>
       <c r="C218" t="n">
-        <v>1933031440</v>
+        <v>1932998680</v>
       </c>
       <c r="D218" t="n">
-        <v>695499477</v>
+        <v>695087330</v>
       </c>
     </row>
     <row r="219">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3352081944</v>
+        <v>3352062110</v>
       </c>
       <c r="C219" t="n">
-        <v>1946144991</v>
+        <v>1946113933</v>
       </c>
       <c r="D219" t="n">
-        <v>705026236</v>
+        <v>704608967</v>
       </c>
     </row>
     <row r="220">
@@ -3928,13 +3928,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3391522021</v>
+        <v>3391504470</v>
       </c>
       <c r="C220" t="n">
-        <v>1962656049</v>
+        <v>1962626578</v>
       </c>
       <c r="D220" t="n">
-        <v>716607197</v>
+        <v>716182527</v>
       </c>
     </row>
     <row r="221">
@@ -3944,13 +3944,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3419937844</v>
+        <v>3419918663</v>
       </c>
       <c r="C221" t="n">
-        <v>1972182939</v>
+        <v>1972153181</v>
       </c>
       <c r="D221" t="n">
-        <v>724473536</v>
+        <v>724038191</v>
       </c>
     </row>
     <row r="222">
@@ -3960,13 +3960,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3449105155</v>
+        <v>3449086374</v>
       </c>
       <c r="C222" t="n">
-        <v>1984456853</v>
+        <v>1984427393</v>
       </c>
       <c r="D222" t="n">
-        <v>732723122</v>
+        <v>732280041</v>
       </c>
     </row>
     <row r="223">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3470805966</v>
+        <v>3470787306</v>
       </c>
       <c r="C223" t="n">
-        <v>1991922853</v>
+        <v>1991893470</v>
       </c>
       <c r="D223" t="n">
-        <v>738992326</v>
+        <v>738541675</v>
       </c>
     </row>
     <row r="224">
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3500473235</v>
+        <v>3500455096</v>
       </c>
       <c r="C224" t="n">
-        <v>2002904454</v>
+        <v>2002875466</v>
       </c>
       <c r="D224" t="n">
-        <v>748866516</v>
+        <v>748408937</v>
       </c>
     </row>
     <row r="225">
@@ -4008,13 +4008,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3535538497</v>
+        <v>3535522163</v>
       </c>
       <c r="C225" t="n">
-        <v>2017774048</v>
+        <v>2017745675</v>
       </c>
       <c r="D225" t="n">
-        <v>758482042</v>
+        <v>758018004</v>
       </c>
     </row>
     <row r="226">
@@ -4024,13 +4024,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>3571699932</v>
+        <v>3571686865</v>
       </c>
       <c r="C226" t="n">
-        <v>2031499197</v>
+        <v>2031471987</v>
       </c>
       <c r="D226" t="n">
-        <v>768606600</v>
+        <v>768134406</v>
       </c>
     </row>
     <row r="227">
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3606933975</v>
+        <v>3606920523</v>
       </c>
       <c r="C227" t="n">
-        <v>2045134017</v>
+        <v>2045106945</v>
       </c>
       <c r="D227" t="n">
-        <v>779141273</v>
+        <v>778659553</v>
       </c>
     </row>
     <row r="228">
@@ -4056,13 +4056,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3640646625</v>
+        <v>3640630886</v>
       </c>
       <c r="C228" t="n">
-        <v>2057802592</v>
+        <v>2057775188</v>
       </c>
       <c r="D228" t="n">
-        <v>789062012</v>
+        <v>788567690</v>
       </c>
     </row>
     <row r="229">
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3669592361</v>
+        <v>3669577001</v>
       </c>
       <c r="C229" t="n">
-        <v>2068353041</v>
+        <v>2068325878</v>
       </c>
       <c r="D229" t="n">
-        <v>797843877</v>
+        <v>797332683</v>
       </c>
     </row>
     <row r="230">
@@ -4088,13 +4088,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3689662152</v>
+        <v>3689646846</v>
       </c>
       <c r="C230" t="n">
-        <v>2074193226</v>
+        <v>2074166141</v>
       </c>
       <c r="D230" t="n">
-        <v>802921151</v>
+        <v>802399860</v>
       </c>
     </row>
     <row r="231">
@@ -4104,13 +4104,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3723325551</v>
+        <v>3723310329</v>
       </c>
       <c r="C231" t="n">
-        <v>2087802534</v>
+        <v>2087775517</v>
       </c>
       <c r="D231" t="n">
-        <v>812487842</v>
+        <v>811959841</v>
       </c>
     </row>
     <row r="232">
@@ -4120,13 +4120,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3756783341</v>
+        <v>3756769725</v>
       </c>
       <c r="C232" t="n">
-        <v>2100541599</v>
+        <v>2100514970</v>
       </c>
       <c r="D232" t="n">
-        <v>821246710</v>
+        <v>820713044</v>
       </c>
     </row>
     <row r="233">
@@ -4136,13 +4136,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3789345155</v>
+        <v>3789332591</v>
       </c>
       <c r="C233" t="n">
-        <v>2110038174</v>
+        <v>2110011870</v>
       </c>
       <c r="D233" t="n">
-        <v>829987099</v>
+        <v>829446670</v>
       </c>
     </row>
     <row r="234">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3828044833</v>
+        <v>3828033192</v>
       </c>
       <c r="C234" t="n">
-        <v>2122962489</v>
+        <v>2122936368</v>
       </c>
       <c r="D234" t="n">
-        <v>840216733</v>
+        <v>839669854</v>
       </c>
     </row>
     <row r="235">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3867080798</v>
+        <v>3867068107</v>
       </c>
       <c r="C235" t="n">
-        <v>2135153616</v>
+        <v>2135127048</v>
       </c>
       <c r="D235" t="n">
-        <v>850200934</v>
+        <v>849641918</v>
       </c>
     </row>
     <row r="236">
@@ -4184,13 +4184,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3898137510</v>
+        <v>3898124609</v>
       </c>
       <c r="C236" t="n">
-        <v>2144450567</v>
+        <v>2144423800</v>
       </c>
       <c r="D236" t="n">
-        <v>858171825</v>
+        <v>857602158</v>
       </c>
     </row>
     <row r="237">
@@ -4200,13 +4200,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3925264628</v>
+        <v>3925251476</v>
       </c>
       <c r="C237" t="n">
-        <v>2152572012</v>
+        <v>2152545115</v>
       </c>
       <c r="D237" t="n">
-        <v>865816166</v>
+        <v>865240740</v>
       </c>
     </row>
     <row r="238">
@@ -4216,13 +4216,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3966706821</v>
+        <v>3966693488</v>
       </c>
       <c r="C238" t="n">
-        <v>2169440386</v>
+        <v>2169413432</v>
       </c>
       <c r="D238" t="n">
-        <v>877454399</v>
+        <v>876871258</v>
       </c>
     </row>
     <row r="239">
@@ -4232,13 +4232,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4007732531</v>
+        <v>4007720524</v>
       </c>
       <c r="C239" t="n">
-        <v>2182460885</v>
+        <v>2182434274</v>
       </c>
       <c r="D239" t="n">
-        <v>888264509</v>
+        <v>887673509</v>
       </c>
     </row>
     <row r="240">
@@ -4248,13 +4248,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4050395002</v>
+        <v>4050384844</v>
       </c>
       <c r="C240" t="n">
-        <v>2196781196</v>
+        <v>2196755024</v>
       </c>
       <c r="D240" t="n">
-        <v>898519701</v>
+        <v>897920524</v>
       </c>
     </row>
     <row r="241">
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4096383629</v>
+        <v>4096374299</v>
       </c>
       <c r="C241" t="n">
-        <v>2212328517</v>
+        <v>2212302880</v>
       </c>
       <c r="D241" t="n">
-        <v>910806187</v>
+        <v>910197581</v>
       </c>
     </row>
     <row r="242">
@@ -4280,13 +4280,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4140380478</v>
+        <v>4140370761</v>
       </c>
       <c r="C242" t="n">
-        <v>2227144385</v>
+        <v>2227118756</v>
       </c>
       <c r="D242" t="n">
-        <v>921489536</v>
+        <v>920868586</v>
       </c>
     </row>
     <row r="243">
@@ -4296,13 +4296,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>4172982972</v>
+        <v>4172973599</v>
       </c>
       <c r="C243" t="n">
-        <v>2237099738</v>
+        <v>2237074234</v>
       </c>
       <c r="D243" t="n">
-        <v>928781271</v>
+        <v>928148983</v>
       </c>
     </row>
     <row r="244">
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4212782634</v>
+        <v>4212773246</v>
       </c>
       <c r="C244" t="n">
-        <v>2252485976</v>
+        <v>2252460408</v>
       </c>
       <c r="D244" t="n">
-        <v>936085999</v>
+        <v>935447845</v>
       </c>
     </row>
     <row r="245">
@@ -4328,13 +4328,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>4251973678</v>
+        <v>4251964322</v>
       </c>
       <c r="C245" t="n">
-        <v>2264040010</v>
+        <v>2264014493</v>
       </c>
       <c r="D245" t="n">
-        <v>944321191</v>
+        <v>943674935</v>
       </c>
     </row>
     <row r="246">
@@ -4344,13 +4344,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>4307615197</v>
+        <v>4307606704</v>
       </c>
       <c r="C246" t="n">
-        <v>2287302203</v>
+        <v>2287276792</v>
       </c>
       <c r="D246" t="n">
-        <v>957035643</v>
+        <v>956381346</v>
       </c>
     </row>
     <row r="247">
@@ -4360,13 +4360,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4347545681</v>
+        <v>4347538486</v>
       </c>
       <c r="C247" t="n">
-        <v>2300101268</v>
+        <v>2300076293</v>
       </c>
       <c r="D247" t="n">
-        <v>966107835</v>
+        <v>965445932</v>
       </c>
     </row>
     <row r="248">
@@ -4376,13 +4376,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4388354518</v>
+        <v>4388348097</v>
       </c>
       <c r="C248" t="n">
-        <v>2315130927</v>
+        <v>2315106280</v>
       </c>
       <c r="D248" t="n">
-        <v>975946065</v>
+        <v>975275040</v>
       </c>
     </row>
     <row r="249">
@@ -4392,13 +4392,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4428324662</v>
+        <v>4428318281</v>
       </c>
       <c r="C249" t="n">
-        <v>2328855831</v>
+        <v>2328831344</v>
       </c>
       <c r="D249" t="n">
-        <v>985488771</v>
+        <v>984806770</v>
       </c>
     </row>
     <row r="250">
@@ -4408,13 +4408,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4460971554</v>
+        <v>4460964965</v>
       </c>
       <c r="C250" t="n">
-        <v>2340403538</v>
+        <v>2340379079</v>
       </c>
       <c r="D250" t="n">
-        <v>994293234</v>
+        <v>993598518</v>
       </c>
     </row>
     <row r="251">
@@ -4424,13 +4424,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4492971260</v>
+        <v>4492964466</v>
       </c>
       <c r="C251" t="n">
-        <v>2353093576</v>
+        <v>2353069075</v>
       </c>
       <c r="D251" t="n">
-        <v>1001425049</v>
+        <v>1000726438</v>
       </c>
     </row>
     <row r="252">
@@ -4440,13 +4440,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4532842316</v>
+        <v>4532834754</v>
       </c>
       <c r="C252" t="n">
-        <v>2371230069</v>
+        <v>2371205317</v>
       </c>
       <c r="D252" t="n">
-        <v>1015880022</v>
+        <v>1015174491</v>
       </c>
     </row>
     <row r="253">
@@ -4456,13 +4456,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>4571144917</v>
+        <v>4571139001</v>
       </c>
       <c r="C253" t="n">
-        <v>2385723437</v>
+        <v>2385699302</v>
       </c>
       <c r="D253" t="n">
-        <v>1026631129</v>
+        <v>1025918955</v>
       </c>
     </row>
     <row r="254">
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>4608732720</v>
+        <v>4608727773</v>
       </c>
       <c r="C254" t="n">
-        <v>2400423710</v>
+        <v>2400400213</v>
       </c>
       <c r="D254" t="n">
-        <v>1037252579</v>
+        <v>1036529280</v>
       </c>
     </row>
     <row r="255">
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4642648334</v>
+        <v>4642644050</v>
       </c>
       <c r="C255" t="n">
-        <v>2411499103</v>
+        <v>2411476063</v>
       </c>
       <c r="D255" t="n">
-        <v>1824823491</v>
+        <v>1824086704</v>
       </c>
     </row>
     <row r="256">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4688906344</v>
+        <v>4688899934</v>
       </c>
       <c r="C256" t="n">
-        <v>2432457988</v>
+        <v>2432434318</v>
       </c>
       <c r="D256" t="n">
-        <v>1838190051</v>
+        <v>1837436385</v>
       </c>
     </row>
     <row r="257">
@@ -4520,13 +4520,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4720709954</v>
+        <v>4720704131</v>
       </c>
       <c r="C257" t="n">
-        <v>2444597976</v>
+        <v>2444574718</v>
       </c>
       <c r="D257" t="n">
-        <v>1848258389</v>
+        <v>1847489222</v>
       </c>
     </row>
     <row r="258">
@@ -4536,13 +4536,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>4743595840</v>
+        <v>4743589879</v>
       </c>
       <c r="C258" t="n">
-        <v>2454637133</v>
+        <v>2454613868</v>
       </c>
       <c r="D258" t="n">
-        <v>1854044952</v>
+        <v>1853268781</v>
       </c>
     </row>
     <row r="259">
@@ -4552,13 +4552,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4785001148</v>
+        <v>4784995656</v>
       </c>
       <c r="C259" t="n">
-        <v>2472624841</v>
+        <v>2472601752</v>
       </c>
       <c r="D259" t="n">
-        <v>1864175807</v>
+        <v>1863389428</v>
       </c>
     </row>
     <row r="260">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4824265975</v>
+        <v>4824262570</v>
       </c>
       <c r="C260" t="n">
-        <v>2487621748</v>
+        <v>2487599460</v>
       </c>
       <c r="D260" t="n">
-        <v>1875390193</v>
+        <v>1874594106</v>
       </c>
     </row>
     <row r="261">
@@ -4584,13 +4584,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4862256464</v>
+        <v>4862254340</v>
       </c>
       <c r="C261" t="n">
-        <v>2500708489</v>
+        <v>2500686814</v>
       </c>
       <c r="D261" t="n">
-        <v>1886300281</v>
+        <v>1885491476</v>
       </c>
     </row>
     <row r="262">
@@ -4600,13 +4600,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>4897903974</v>
+        <v>4897905013</v>
       </c>
       <c r="C262" t="n">
-        <v>2513061486</v>
+        <v>2513041343</v>
       </c>
       <c r="D262" t="n">
-        <v>1897219479</v>
+        <v>1896399031</v>
       </c>
     </row>
     <row r="263">
@@ -4616,13 +4616,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4939672454</v>
+        <v>4939673559</v>
       </c>
       <c r="C263" t="n">
-        <v>2531035245</v>
+        <v>2531015066</v>
       </c>
       <c r="D263" t="n">
-        <v>1910751395</v>
+        <v>1909915113</v>
       </c>
     </row>
     <row r="264">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4971965033</v>
+        <v>4971966471</v>
       </c>
       <c r="C264" t="n">
-        <v>2543188906</v>
+        <v>2543168799</v>
       </c>
       <c r="D264" t="n">
-        <v>1918546898</v>
+        <v>1917697093</v>
       </c>
     </row>
     <row r="265">
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4999727872</v>
+        <v>4999729568</v>
       </c>
       <c r="C265" t="n">
-        <v>2551183117</v>
+        <v>2551162967</v>
       </c>
       <c r="D265" t="n">
-        <v>1925926969</v>
+        <v>1925071694</v>
       </c>
     </row>
     <row r="266">
@@ -4664,13 +4664,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5033161229</v>
+        <v>5033163023</v>
       </c>
       <c r="C266" t="n">
-        <v>2560263264</v>
+        <v>2560243099</v>
       </c>
       <c r="D266" t="n">
-        <v>1934815265</v>
+        <v>1933950006</v>
       </c>
     </row>
     <row r="267">
@@ -4680,13 +4680,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>5076097232</v>
+        <v>5076102062</v>
       </c>
       <c r="C267" t="n">
-        <v>2575873971</v>
+        <v>2575854960</v>
       </c>
       <c r="D267" t="n">
-        <v>1947919267</v>
+        <v>1947045108</v>
       </c>
     </row>
     <row r="268">
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>5120748294</v>
+        <v>5120754878</v>
       </c>
       <c r="C268" t="n">
-        <v>2593027501</v>
+        <v>2593009023</v>
       </c>
       <c r="D268" t="n">
-        <v>1960934665</v>
+        <v>1960048557</v>
       </c>
     </row>
     <row r="269">
@@ -4712,13 +4712,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>5161469145</v>
+        <v>5161477329</v>
       </c>
       <c r="C269" t="n">
-        <v>3057106239</v>
+        <v>3057088670</v>
       </c>
       <c r="D269" t="n">
-        <v>2084628879</v>
+        <v>2083731487</v>
       </c>
     </row>
     <row r="270">
@@ -4728,13 +4728,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>5214120947</v>
+        <v>5214128860</v>
       </c>
       <c r="C270" t="n">
-        <v>3078330114</v>
+        <v>3078312340</v>
       </c>
       <c r="D270" t="n">
-        <v>2100976912</v>
+        <v>2100064793</v>
       </c>
     </row>
     <row r="271">
@@ -4744,13 +4744,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5251535330</v>
+        <v>5251543967</v>
       </c>
       <c r="C271" t="n">
-        <v>3092043618</v>
+        <v>3092026219</v>
       </c>
       <c r="D271" t="n">
-        <v>2110746220</v>
+        <v>2109819858</v>
       </c>
     </row>
     <row r="272">
@@ -4760,13 +4760,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>5289603394</v>
+        <v>5289612033</v>
       </c>
       <c r="C272" t="n">
-        <v>3105328088</v>
+        <v>3105310615</v>
       </c>
       <c r="D272" t="n">
-        <v>2122868808</v>
+        <v>2121936246</v>
       </c>
     </row>
     <row r="273">
@@ -4776,13 +4776,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>5323421425</v>
+        <v>5323430437</v>
       </c>
       <c r="C273" t="n">
-        <v>3117237735</v>
+        <v>3117220436</v>
       </c>
       <c r="D273" t="n">
-        <v>2132895446</v>
+        <v>2131953531</v>
       </c>
     </row>
     <row r="274">
@@ -4792,13 +4792,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>5364029207</v>
+        <v>5364039284</v>
       </c>
       <c r="C274" t="n">
-        <v>3131723116</v>
+        <v>3131706449</v>
       </c>
       <c r="D274" t="n">
-        <v>2145848507</v>
+        <v>2144897349</v>
       </c>
     </row>
     <row r="275">
@@ -4808,13 +4808,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>5409478487</v>
+        <v>5409490228</v>
       </c>
       <c r="C275" t="n">
-        <v>3153458265</v>
+        <v>3153442444</v>
       </c>
       <c r="D275" t="n">
-        <v>2160485439</v>
+        <v>2159524522</v>
       </c>
     </row>
     <row r="276">
@@ -4824,13 +4824,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>5442306765</v>
+        <v>5442319903</v>
       </c>
       <c r="C276" t="n">
-        <v>3166657709</v>
+        <v>3166642656</v>
       </c>
       <c r="D276" t="n">
-        <v>2171669286</v>
+        <v>2170700502</v>
       </c>
     </row>
     <row r="277">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>5471999032</v>
+        <v>5472012378</v>
       </c>
       <c r="C277" t="n">
-        <v>3177971994</v>
+        <v>3177956909</v>
       </c>
       <c r="D277" t="n">
-        <v>2182104959</v>
+        <v>2181126198</v>
       </c>
     </row>
     <row r="278">
@@ -4856,13 +4856,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>5498867263</v>
+        <v>5498880869</v>
       </c>
       <c r="C278" t="n">
-        <v>3186758031</v>
+        <v>3186743070</v>
       </c>
       <c r="D278" t="n">
-        <v>2191863119</v>
+        <v>2190874877</v>
       </c>
     </row>
     <row r="279">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>5530709691</v>
+        <v>5530723532</v>
       </c>
       <c r="C279" t="n">
-        <v>3199660753</v>
+        <v>3199645917</v>
       </c>
       <c r="D279" t="n">
-        <v>2203522608</v>
+        <v>2202529567</v>
       </c>
     </row>
     <row r="280">
@@ -4888,13 +4888,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5556166356</v>
+        <v>5556180072</v>
       </c>
       <c r="C280" t="n">
-        <v>3232328381</v>
+        <v>3232313618</v>
       </c>
       <c r="D280" t="n">
-        <v>2292611510</v>
+        <v>2291612277</v>
       </c>
     </row>
     <row r="281">
@@ -4904,13 +4904,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5590806845</v>
+        <v>5590822202</v>
       </c>
       <c r="C281" t="n">
-        <v>3248838394</v>
+        <v>3248824525</v>
       </c>
       <c r="D281" t="n">
-        <v>2304166449</v>
+        <v>2303161356</v>
       </c>
     </row>
     <row r="282">
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>5630258944</v>
+        <v>5630274672</v>
       </c>
       <c r="C282" t="n">
-        <v>3266818718</v>
+        <v>3266804890</v>
       </c>
       <c r="D282" t="n">
-        <v>2321419657</v>
+        <v>2320406501</v>
       </c>
     </row>
     <row r="283">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>5667797982</v>
+        <v>5667815316</v>
       </c>
       <c r="C283" t="n">
-        <v>3290335295</v>
+        <v>3290322277</v>
       </c>
       <c r="D283" t="n">
-        <v>2337726541</v>
+        <v>2336705914</v>
       </c>
     </row>
     <row r="284">
@@ -4952,13 +4952,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>5698792260</v>
+        <v>5698809213</v>
       </c>
       <c r="C284" t="n">
-        <v>3303627641</v>
+        <v>3303614536</v>
       </c>
       <c r="D284" t="n">
-        <v>2350141551</v>
+        <v>2349109382</v>
       </c>
     </row>
     <row r="285">
@@ -4968,13 +4968,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>5733872769</v>
+        <v>5733890221</v>
       </c>
       <c r="C285" t="n">
-        <v>3317768089</v>
+        <v>3317755253</v>
       </c>
       <c r="D285" t="n">
-        <v>2363069930</v>
+        <v>2362027384</v>
       </c>
     </row>
     <row r="286">
@@ -4984,13 +4984,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>5767158748</v>
+        <v>5767176391</v>
       </c>
       <c r="C286" t="n">
-        <v>3332654353</v>
+        <v>3332641578</v>
       </c>
       <c r="D286" t="n">
-        <v>2374354370</v>
+        <v>2373306773</v>
       </c>
     </row>
     <row r="287">
@@ -5000,13 +5000,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>5798467956</v>
+        <v>5798485943</v>
       </c>
       <c r="C287" t="n">
-        <v>3346542530</v>
+        <v>3346529762</v>
       </c>
       <c r="D287" t="n">
-        <v>2385624689</v>
+        <v>2384568770</v>
       </c>
     </row>
     <row r="288">
@@ -5016,13 +5016,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>5825256058</v>
+        <v>5825276890</v>
       </c>
       <c r="C288" t="n">
-        <v>3357321928</v>
+        <v>3357310320</v>
       </c>
       <c r="D288" t="n">
-        <v>2396919442</v>
+        <v>2395856685</v>
       </c>
     </row>
     <row r="289">
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>5856556711</v>
+        <v>5856579905</v>
       </c>
       <c r="C289" t="n">
-        <v>3370517866</v>
+        <v>3370506707</v>
       </c>
       <c r="D289" t="n">
-        <v>2451616475</v>
+        <v>2450545318</v>
       </c>
     </row>
     <row r="290">
@@ -5048,13 +5048,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>5887481535</v>
+        <v>5887506656</v>
       </c>
       <c r="C290" t="n">
-        <v>3384068294</v>
+        <v>3384057312</v>
       </c>
       <c r="D290" t="n">
-        <v>2464271205</v>
+        <v>2463191845</v>
       </c>
     </row>
     <row r="291">
@@ -5064,13 +5064,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>5915338217</v>
+        <v>5915362906</v>
       </c>
       <c r="C291" t="n">
-        <v>3395548783</v>
+        <v>3395537628</v>
       </c>
       <c r="D291" t="n">
-        <v>2475882252</v>
+        <v>2474791206</v>
       </c>
     </row>
     <row r="292">
@@ -5080,13 +5080,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>5955500266</v>
+        <v>5955525486</v>
       </c>
       <c r="C292" t="n">
-        <v>3423964594</v>
+        <v>3423953488</v>
       </c>
       <c r="D292" t="n">
-        <v>2501140265</v>
+        <v>2500039844</v>
       </c>
     </row>
     <row r="293">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>5982573760</v>
+        <v>5982599274</v>
       </c>
       <c r="C293" t="n">
-        <v>3436093119</v>
+        <v>3436081998</v>
       </c>
       <c r="D293" t="n">
-        <v>2512284738</v>
+        <v>2511180068</v>
       </c>
     </row>
     <row r="294">
@@ -5112,13 +5112,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>6007716211</v>
+        <v>6007742131</v>
       </c>
       <c r="C294" t="n">
-        <v>3447354548</v>
+        <v>3447343294</v>
       </c>
       <c r="D294" t="n">
-        <v>2522355889</v>
+        <v>2521245081</v>
       </c>
     </row>
     <row r="295">
@@ -5128,13 +5128,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>6037048897</v>
+        <v>6037076970</v>
       </c>
       <c r="C295" t="n">
-        <v>3461760157</v>
+        <v>3461749605</v>
       </c>
       <c r="D295" t="n">
-        <v>2534921531</v>
+        <v>2533805851</v>
       </c>
     </row>
     <row r="296">
@@ -5144,13 +5144,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>6065159093</v>
+        <v>6065189015</v>
       </c>
       <c r="C296" t="n">
-        <v>3474354254</v>
+        <v>3474343906</v>
       </c>
       <c r="D296" t="n">
-        <v>2546135576</v>
+        <v>2545013114</v>
       </c>
     </row>
     <row r="297">
@@ -5160,13 +5160,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>6097014871</v>
+        <v>6097046048</v>
       </c>
       <c r="C297" t="n">
-        <v>3488126661</v>
+        <v>3488116543</v>
       </c>
       <c r="D297" t="n">
-        <v>2557968094</v>
+        <v>2556838709</v>
       </c>
     </row>
     <row r="298">
@@ -5176,13 +5176,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>6127006427</v>
+        <v>6127037388</v>
       </c>
       <c r="C298" t="n">
-        <v>3501581390</v>
+        <v>3501570862</v>
       </c>
       <c r="D298" t="n">
-        <v>2570251038</v>
+        <v>2569112812</v>
       </c>
     </row>
     <row r="299">
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6149005546</v>
+        <v>6149037473</v>
       </c>
       <c r="C299" t="n">
-        <v>3511215003</v>
+        <v>3511204623</v>
       </c>
       <c r="D299" t="n">
-        <v>2580095963</v>
+        <v>2578950333</v>
       </c>
     </row>
     <row r="300">
@@ -5208,13 +5208,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>6166947411</v>
+        <v>6166979646</v>
       </c>
       <c r="C300" t="n">
-        <v>3518577575</v>
+        <v>3518567110</v>
       </c>
       <c r="D300" t="n">
-        <v>2587997000</v>
+        <v>2586847654</v>
       </c>
     </row>
     <row r="301">
@@ -5224,13 +5224,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>6213142444</v>
+        <v>6213175406</v>
       </c>
       <c r="C301" t="n">
-        <v>3542873548</v>
+        <v>3542863317</v>
       </c>
       <c r="D301" t="n">
-        <v>2606124098</v>
+        <v>2604969595</v>
       </c>
     </row>
     <row r="302">
@@ -5240,13 +5240,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>6240712909</v>
+        <v>6240748331</v>
       </c>
       <c r="C302" t="n">
-        <v>3552824972</v>
+        <v>3552815381</v>
       </c>
       <c r="D302" t="n">
-        <v>2641756377</v>
+        <v>2640597318</v>
       </c>
     </row>
     <row r="303">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6272075613</v>
+        <v>6272112740</v>
       </c>
       <c r="C303" t="n">
-        <v>3569447688</v>
+        <v>3569438432</v>
       </c>
       <c r="D303" t="n">
-        <v>2652361760</v>
+        <v>2651197574</v>
       </c>
     </row>
     <row r="304">
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>6301697863</v>
+        <v>6301736705</v>
       </c>
       <c r="C304" t="n">
-        <v>3584231103</v>
+        <v>3584222169</v>
       </c>
       <c r="D304" t="n">
-        <v>2665187642</v>
+        <v>2664018308</v>
       </c>
     </row>
     <row r="305">
@@ -5288,13 +5288,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6325598473</v>
+        <v>6325638279</v>
       </c>
       <c r="C305" t="n">
-        <v>3595243717</v>
+        <v>3595234871</v>
       </c>
       <c r="D305" t="n">
-        <v>2675929638</v>
+        <v>2674755999</v>
       </c>
     </row>
     <row r="306">
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>6347381910</v>
+        <v>6347419336</v>
       </c>
       <c r="C306" t="n">
-        <v>3605564018</v>
+        <v>3605553882</v>
       </c>
       <c r="D306" t="n">
-        <v>2685551750</v>
+        <v>2684374107</v>
       </c>
     </row>
     <row r="307">
@@ -5320,13 +5320,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>6369178640</v>
+        <v>6369211538</v>
       </c>
       <c r="C307" t="n">
-        <v>3618016841</v>
+        <v>3618004608</v>
       </c>
       <c r="D307" t="n">
-        <v>2694003602</v>
+        <v>2692822799</v>
       </c>
     </row>
     <row r="308">
@@ -5336,13 +5336,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>6391320569</v>
+        <v>6391355125</v>
       </c>
       <c r="C308" t="n">
-        <v>3627108985</v>
+        <v>3627096369</v>
       </c>
       <c r="D308" t="n">
-        <v>2705193115</v>
+        <v>2704011429</v>
       </c>
     </row>
     <row r="309">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>6424670439</v>
+        <v>6424743424</v>
       </c>
       <c r="C309" t="n">
-        <v>3639974534</v>
+        <v>3639971583</v>
       </c>
       <c r="D309" t="n">
-        <v>2721623692</v>
+        <v>2720458147</v>
       </c>
     </row>
     <row r="310">
@@ -5368,13 +5368,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>6448256961</v>
+        <v>6448359642</v>
       </c>
       <c r="C310" t="n">
-        <v>3650157551</v>
+        <v>3650161842</v>
       </c>
       <c r="D310" t="n">
-        <v>2732780851</v>
+        <v>2731625169</v>
       </c>
     </row>
     <row r="311">
@@ -5384,13 +5384,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6471909724</v>
+        <v>6472039311</v>
       </c>
       <c r="C311" t="n">
-        <v>3658857783</v>
+        <v>3658870929</v>
       </c>
       <c r="D311" t="n">
-        <v>2744741738</v>
+        <v>2743598144</v>
       </c>
     </row>
     <row r="312">
@@ -5400,13 +5400,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>6503941628</v>
+        <v>6504047280</v>
       </c>
       <c r="C312" t="n">
-        <v>3672923709</v>
+        <v>3672927492</v>
       </c>
       <c r="D312" t="n">
-        <v>2760005312</v>
+        <v>2758846930</v>
       </c>
     </row>
     <row r="313">
@@ -5416,13 +5416,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6525611951</v>
+        <v>6525714470</v>
       </c>
       <c r="C313" t="n">
-        <v>3681705554</v>
+        <v>3681708220</v>
       </c>
       <c r="D313" t="n">
-        <v>2770650605</v>
+        <v>2769487798</v>
       </c>
     </row>
     <row r="314">
@@ -5432,13 +5432,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>6553396242</v>
+        <v>6553493782</v>
       </c>
       <c r="C314" t="n">
-        <v>3694513411</v>
+        <v>3694514397</v>
       </c>
       <c r="D314" t="n">
-        <v>2783223143</v>
+        <v>2782056720</v>
       </c>
     </row>
     <row r="315">
@@ -5448,13 +5448,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>6572848152</v>
+        <v>6572948650</v>
       </c>
       <c r="C315" t="n">
-        <v>3702086136</v>
+        <v>3702088311</v>
       </c>
       <c r="D315" t="n">
-        <v>2793138851</v>
+        <v>2791971905</v>
       </c>
     </row>
     <row r="316">
@@ -5464,13 +5464,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>6595787215</v>
+        <v>6595922894</v>
       </c>
       <c r="C316" t="n">
-        <v>3711508675</v>
+        <v>3711519171</v>
       </c>
       <c r="D316" t="n">
-        <v>2803781828</v>
+        <v>2802628909</v>
       </c>
     </row>
     <row r="317">
@@ -5480,13 +5480,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>6618773086</v>
+        <v>6618934347</v>
       </c>
       <c r="C317" t="n">
-        <v>3720163548</v>
+        <v>3720180142</v>
       </c>
       <c r="D317" t="n">
-        <v>2813686189</v>
+        <v>2812540214</v>
       </c>
     </row>
     <row r="318">
@@ -5496,13 +5496,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>6641636424</v>
+        <v>6641820770</v>
       </c>
       <c r="C318" t="n">
-        <v>3730149255</v>
+        <v>3730173743</v>
       </c>
       <c r="D318" t="n">
-        <v>2823295399</v>
+        <v>2822158428</v>
       </c>
     </row>
     <row r="319">
@@ -5512,13 +5512,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6662086940</v>
+        <v>6662251944</v>
       </c>
       <c r="C319" t="n">
-        <v>3737189594</v>
+        <v>3737208648</v>
       </c>
       <c r="D319" t="n">
-        <v>2832652240</v>
+        <v>2831502942</v>
       </c>
     </row>
     <row r="320">
@@ -5528,13 +5528,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6677352648</v>
+        <v>6677515797</v>
       </c>
       <c r="C320" t="n">
-        <v>3743440363</v>
+        <v>3743459080</v>
       </c>
       <c r="D320" t="n">
-        <v>2838884840</v>
+        <v>2837731830</v>
       </c>
     </row>
     <row r="321">
@@ -5544,13 +5544,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>6702891232</v>
+        <v>6703049854</v>
       </c>
       <c r="C321" t="n">
-        <v>3755494062</v>
+        <v>3755511497</v>
       </c>
       <c r="D321" t="n">
-        <v>2849499245</v>
+        <v>2848343181</v>
       </c>
     </row>
     <row r="322">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>6732954194</v>
+        <v>6733119519</v>
       </c>
       <c r="C322" t="n">
-        <v>3767373575</v>
+        <v>3767393420</v>
       </c>
       <c r="D322" t="n">
-        <v>2863353034</v>
+        <v>2862198813</v>
       </c>
     </row>
     <row r="323">
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>6759681820</v>
+        <v>6759882174</v>
       </c>
       <c r="C323" t="n">
-        <v>3777476014</v>
+        <v>3777503900</v>
       </c>
       <c r="D323" t="n">
-        <v>2875483644</v>
+        <v>2874342501</v>
       </c>
     </row>
     <row r="324">
@@ -5592,13 +5592,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>6795500160</v>
+        <v>6795725738</v>
       </c>
       <c r="C324" t="n">
-        <v>3794101677</v>
+        <v>3794134907</v>
       </c>
       <c r="D324" t="n">
-        <v>2889093207</v>
+        <v>2887958086</v>
       </c>
     </row>
     <row r="325">
@@ -5608,13 +5608,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>6821769909</v>
+        <v>6822013038</v>
       </c>
       <c r="C325" t="n">
-        <v>3809968606</v>
+        <v>3810007598</v>
       </c>
       <c r="D325" t="n">
-        <v>2900509144</v>
+        <v>2899380140</v>
       </c>
     </row>
     <row r="326">
@@ -5624,13 +5624,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>6849652175</v>
+        <v>6849886283</v>
       </c>
       <c r="C326" t="n">
-        <v>3820405238</v>
+        <v>3820441496</v>
       </c>
       <c r="D326" t="n">
-        <v>2912794832</v>
+        <v>2911657919</v>
       </c>
     </row>
     <row r="327">
@@ -5640,13 +5640,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>6877143827</v>
+        <v>6877373676</v>
       </c>
       <c r="C327" t="n">
-        <v>3831829678</v>
+        <v>3831864823</v>
       </c>
       <c r="D327" t="n">
-        <v>2945031881</v>
+        <v>2943890697</v>
       </c>
     </row>
     <row r="328">
@@ -5656,13 +5656,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>6899770019</v>
+        <v>6899997285</v>
       </c>
       <c r="C328" t="n">
-        <v>3839679186</v>
+        <v>3839713492</v>
       </c>
       <c r="D328" t="n">
-        <v>2956271550</v>
+        <v>2955128524</v>
       </c>
     </row>
     <row r="329">
@@ -5672,13 +5672,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6921002253</v>
+        <v>6921230298</v>
       </c>
       <c r="C329" t="n">
-        <v>3845958041</v>
+        <v>3845990092</v>
       </c>
       <c r="D329" t="n">
-        <v>2965131629</v>
+        <v>2963987155</v>
       </c>
     </row>
     <row r="330">
@@ -5688,13 +5688,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>6948389036</v>
+        <v>6948660112</v>
       </c>
       <c r="C330" t="n">
-        <v>3855597584</v>
+        <v>3855636956</v>
       </c>
       <c r="D330" t="n">
-        <v>2976758159</v>
+        <v>2975627806</v>
       </c>
     </row>
     <row r="331">
@@ -5704,13 +5704,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>6972175347</v>
+        <v>6972478393</v>
       </c>
       <c r="C331" t="n">
-        <v>3862801691</v>
+        <v>3862846465</v>
       </c>
       <c r="D331" t="n">
-        <v>2986018892</v>
+        <v>2984894694</v>
       </c>
     </row>
     <row r="332">
@@ -5720,13 +5720,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>7002180636</v>
+        <v>7002510255</v>
       </c>
       <c r="C332" t="n">
-        <v>3873817631</v>
+        <v>3873866931</v>
       </c>
       <c r="D332" t="n">
-        <v>2998277763</v>
+        <v>2997161598</v>
       </c>
     </row>
     <row r="333">
@@ -5736,13 +5736,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>7040313094</v>
+        <v>7040622574</v>
       </c>
       <c r="C333" t="n">
-        <v>3886010234</v>
+        <v>3886054804</v>
       </c>
       <c r="D333" t="n">
-        <v>3019839245</v>
+        <v>3018711755</v>
       </c>
     </row>
     <row r="334">
@@ -5752,13 +5752,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>7073074916</v>
+        <v>7073378780</v>
       </c>
       <c r="C334" t="n">
-        <v>3897094260</v>
+        <v>3897137444</v>
       </c>
       <c r="D334" t="n">
-        <v>3033692152</v>
+        <v>3032560353</v>
       </c>
     </row>
     <row r="335">
@@ -5768,13 +5768,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>7105527877</v>
+        <v>7105828489</v>
       </c>
       <c r="C335" t="n">
-        <v>3905585709</v>
+        <v>3905627957</v>
       </c>
       <c r="D335" t="n">
-        <v>3049915501</v>
+        <v>3048781868</v>
       </c>
     </row>
     <row r="336">
@@ -5784,13 +5784,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>7129677789</v>
+        <v>7129975619</v>
       </c>
       <c r="C336" t="n">
-        <v>3912993021</v>
+        <v>3913033686</v>
       </c>
       <c r="D336" t="n">
-        <v>3059008817</v>
+        <v>3057871741</v>
       </c>
     </row>
     <row r="337">
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>7157158438</v>
+        <v>7157492712</v>
       </c>
       <c r="C337" t="n">
-        <v>3919928383</v>
+        <v>3919974318</v>
       </c>
       <c r="D337" t="n">
-        <v>3068626274</v>
+        <v>3067499293</v>
       </c>
     </row>
     <row r="338">
@@ -5816,13 +5816,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>7186080864</v>
+        <v>7186448837</v>
       </c>
       <c r="C338" t="n">
-        <v>3927264708</v>
+        <v>3927312545</v>
       </c>
       <c r="D338" t="n">
-        <v>3077799024</v>
+        <v>3076673966</v>
       </c>
     </row>
     <row r="339">
@@ -5832,13 +5832,13 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>7218519786</v>
+        <v>7218918947</v>
       </c>
       <c r="C339" t="n">
-        <v>3936417259</v>
+        <v>3936471534</v>
       </c>
       <c r="D339" t="n">
-        <v>3087324265</v>
+        <v>3086205716</v>
       </c>
     </row>
     <row r="340">
@@ -5848,13 +5848,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>7253160108</v>
+        <v>7253546385</v>
       </c>
       <c r="C340" t="n">
-        <v>3946848190</v>
+        <v>3946900385</v>
       </c>
       <c r="D340" t="n">
-        <v>3101292830</v>
+        <v>3100165668</v>
       </c>
     </row>
     <row r="341">
@@ -5864,13 +5864,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>7281347109</v>
+        <v>7281732512</v>
       </c>
       <c r="C341" t="n">
-        <v>3953347168</v>
+        <v>3953399776</v>
       </c>
       <c r="D341" t="n">
-        <v>3108529488</v>
+        <v>3107399263</v>
       </c>
     </row>
     <row r="342">
@@ -5880,13 +5880,13 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>7308798868</v>
+        <v>7309175906</v>
       </c>
       <c r="C342" t="n">
-        <v>3960919305</v>
+        <v>3960969990</v>
       </c>
       <c r="D342" t="n">
-        <v>3116619614</v>
+        <v>3115485863</v>
       </c>
     </row>
     <row r="343">
@@ -5896,13 +5896,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>7337416771</v>
+        <v>7337800155</v>
       </c>
       <c r="C343" t="n">
-        <v>3967791789</v>
+        <v>3967842814</v>
       </c>
       <c r="D343" t="n">
-        <v>3125167580</v>
+        <v>3124031871</v>
       </c>
     </row>
     <row r="344">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>7371272303</v>
+        <v>7371712351</v>
       </c>
       <c r="C344" t="n">
-        <v>3976854676</v>
+        <v>3976912063</v>
       </c>
       <c r="D344" t="n">
-        <v>3136279868</v>
+        <v>3135151873</v>
       </c>
     </row>
     <row r="345">
@@ -5928,13 +5928,13 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>7409761950</v>
+        <v>7410254691</v>
       </c>
       <c r="C345" t="n">
-        <v>3989311068</v>
+        <v>3989374500</v>
       </c>
       <c r="D345" t="n">
-        <v>3148613118</v>
+        <v>3147488879</v>
       </c>
     </row>
     <row r="346">
@@ -5944,13 +5944,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>7443102553</v>
+        <v>7443635095</v>
       </c>
       <c r="C346" t="n">
-        <v>4006042543</v>
+        <v>4006112103</v>
       </c>
       <c r="D346" t="n">
-        <v>3161154757</v>
+        <v>3160034333</v>
       </c>
     </row>
     <row r="347">
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>7477339853</v>
+        <v>7477893036</v>
       </c>
       <c r="C347" t="n">
-        <v>4013802535</v>
+        <v>4013871895</v>
       </c>
       <c r="D347" t="n">
-        <v>3175091497</v>
+        <v>3173967039</v>
       </c>
     </row>
     <row r="348">
@@ -5976,13 +5976,13 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>7511468658</v>
+        <v>7512022925</v>
       </c>
       <c r="C348" t="n">
-        <v>4022131662</v>
+        <v>4022201369</v>
       </c>
       <c r="D348" t="n">
-        <v>3188546930</v>
+        <v>3187419055</v>
       </c>
     </row>
     <row r="349">
@@ -5992,13 +5992,13 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>7537731383</v>
+        <v>7538269936</v>
       </c>
       <c r="C349" t="n">
-        <v>4030417748</v>
+        <v>4030484325</v>
       </c>
       <c r="D349" t="n">
-        <v>3198736992</v>
+        <v>3197604182</v>
       </c>
     </row>
     <row r="350">
@@ -6008,13 +6008,13 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>7563235721</v>
+        <v>7563782241</v>
       </c>
       <c r="C350" t="n">
-        <v>4036103371</v>
+        <v>4036167054</v>
       </c>
       <c r="D350" t="n">
-        <v>3207014538</v>
+        <v>3205876574</v>
       </c>
     </row>
     <row r="351">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>7590795130</v>
+        <v>7591401550</v>
       </c>
       <c r="C351" t="n">
-        <v>4042115612</v>
+        <v>4042187538</v>
       </c>
       <c r="D351" t="n">
-        <v>3216100729</v>
+        <v>3214967277</v>
       </c>
     </row>
     <row r="352">
@@ -6040,13 +6040,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>7623096316</v>
+        <v>7623747163</v>
       </c>
       <c r="C352" t="n">
-        <v>4049656386</v>
+        <v>4049733419</v>
       </c>
       <c r="D352" t="n">
-        <v>3227599611</v>
+        <v>3226466062</v>
       </c>
     </row>
     <row r="353">
@@ -6056,13 +6056,13 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>7653272606</v>
+        <v>7653975862</v>
       </c>
       <c r="C353" t="n">
-        <v>4057027406</v>
+        <v>4057111876</v>
       </c>
       <c r="D353" t="n">
-        <v>3240742574</v>
+        <v>3239611881</v>
       </c>
     </row>
     <row r="354">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>7687139263</v>
+        <v>7687830523</v>
       </c>
       <c r="C354" t="n">
-        <v>4190271041</v>
+        <v>4190353109</v>
       </c>
       <c r="D354" t="n">
-        <v>3253279967</v>
+        <v>3252137139</v>
       </c>
     </row>
     <row r="355">
@@ -6088,13 +6088,13 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>7721638849</v>
+        <v>7722349992</v>
       </c>
       <c r="C355" t="n">
-        <v>4199571647</v>
+        <v>4199655823</v>
       </c>
       <c r="D355" t="n">
-        <v>3266206865</v>
+        <v>3265057265</v>
       </c>
     </row>
     <row r="356">
@@ -6104,13 +6104,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7748457079</v>
+        <v>7749152773</v>
       </c>
       <c r="C356" t="n">
-        <v>4205834785</v>
+        <v>4205916402</v>
       </c>
       <c r="D356" t="n">
-        <v>3275877690</v>
+        <v>3274722832</v>
       </c>
     </row>
     <row r="357">
@@ -6120,13 +6120,13 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>7777139399</v>
+        <v>7777842684</v>
       </c>
       <c r="C357" t="n">
-        <v>4212979886</v>
+        <v>4213065950</v>
       </c>
       <c r="D357" t="n">
-        <v>3286387336</v>
+        <v>3285227445</v>
       </c>
     </row>
     <row r="358">
@@ -6136,13 +6136,13 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>7808096907</v>
+        <v>7808938226</v>
       </c>
       <c r="C358" t="n">
-        <v>4220525617</v>
+        <v>4220633778</v>
       </c>
       <c r="D358" t="n">
-        <v>3296356219</v>
+        <v>3295203700</v>
       </c>
     </row>
     <row r="359">
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>7846699838</v>
+        <v>7847659272</v>
       </c>
       <c r="C359" t="n">
-        <v>4232586685</v>
+        <v>4232711328</v>
       </c>
       <c r="D359" t="n">
-        <v>3310567585</v>
+        <v>3309414068</v>
       </c>
     </row>
     <row r="360">
@@ -6168,13 +6168,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>7873624281</v>
+        <v>7874657991</v>
       </c>
       <c r="C360" t="n">
-        <v>4238627611</v>
+        <v>4238769980</v>
       </c>
       <c r="D360" t="n">
-        <v>3318410865</v>
+        <v>3317261191</v>
       </c>
     </row>
     <row r="361">
@@ -6184,13 +6184,13 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>7912459315</v>
+        <v>7913486761</v>
       </c>
       <c r="C361" t="n">
-        <v>4247850062</v>
+        <v>4247992148</v>
       </c>
       <c r="D361" t="n">
-        <v>3331832407</v>
+        <v>3330671602</v>
       </c>
     </row>
     <row r="362">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>7941426991</v>
+        <v>7942581793</v>
       </c>
       <c r="C362" t="n">
-        <v>4254503952</v>
+        <v>4254663832</v>
       </c>
       <c r="D362" t="n">
-        <v>3339661408</v>
+        <v>3338493706</v>
       </c>
     </row>
     <row r="363">
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>7981113109</v>
+        <v>7982232764</v>
       </c>
       <c r="C363" t="n">
-        <v>4264188305</v>
+        <v>4264341941</v>
       </c>
       <c r="D363" t="n">
-        <v>3353851949</v>
+        <v>3352675920</v>
       </c>
     </row>
     <row r="364">
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>8014721946</v>
+        <v>8015796321</v>
       </c>
       <c r="C364" t="n">
-        <v>4274687408</v>
+        <v>4274835821</v>
       </c>
       <c r="D364" t="n">
-        <v>3397428373</v>
+        <v>3396244792</v>
       </c>
     </row>
     <row r="365">
@@ -6248,13 +6248,13 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>8056136436</v>
+        <v>8057332457</v>
       </c>
       <c r="C365" t="n">
-        <v>4284218468</v>
+        <v>4284380944</v>
       </c>
       <c r="D365" t="n">
-        <v>3411501037</v>
+        <v>3410324982</v>
       </c>
     </row>
     <row r="366">
@@ -6264,13 +6264,13 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>8098580654</v>
+        <v>8099918521</v>
       </c>
       <c r="C366" t="n">
-        <v>4294743055</v>
+        <v>4294916335</v>
       </c>
       <c r="D366" t="n">
-        <v>3424500198</v>
+        <v>3423326625</v>
       </c>
     </row>
     <row r="367">
@@ -6280,13 +6280,13 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>8137075592</v>
+        <v>8138490651</v>
       </c>
       <c r="C367" t="n">
-        <v>4319092097</v>
+        <v>4319274047</v>
       </c>
       <c r="D367" t="n">
-        <v>3470563993</v>
+        <v>3469393802</v>
       </c>
     </row>
     <row r="368">
@@ -6296,13 +6296,13 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>8170876887</v>
+        <v>8172291362</v>
       </c>
       <c r="C368" t="n">
-        <v>4325228672</v>
+        <v>4325407530</v>
       </c>
       <c r="D368" t="n">
-        <v>3494857854</v>
+        <v>3493680629</v>
       </c>
     </row>
     <row r="369">
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>8208454669</v>
+        <v>8210051443</v>
       </c>
       <c r="C369" t="n">
-        <v>4333963363</v>
+        <v>4334155629</v>
       </c>
       <c r="D369" t="n">
-        <v>3508216069</v>
+        <v>3507035417</v>
       </c>
     </row>
     <row r="370">
@@ -6328,13 +6328,13 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>8240028633</v>
+        <v>8241615794</v>
       </c>
       <c r="C370" t="n">
-        <v>4341434700</v>
+        <v>4341624663</v>
       </c>
       <c r="D370" t="n">
-        <v>3518088758</v>
+        <v>3516904226</v>
       </c>
     </row>
     <row r="371">
@@ -6344,13 +6344,13 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>8269303009</v>
+        <v>8270884026</v>
       </c>
       <c r="C371" t="n">
-        <v>4349360354</v>
+        <v>4349549219</v>
       </c>
       <c r="D371" t="n">
-        <v>3527159033</v>
+        <v>3525973826</v>
       </c>
     </row>
     <row r="372">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>8299584325</v>
+        <v>8301269433</v>
       </c>
       <c r="C372" t="n">
-        <v>4355243246</v>
+        <v>4355440545</v>
       </c>
       <c r="D372" t="n">
-        <v>3537006477</v>
+        <v>3535828670</v>
       </c>
     </row>
     <row r="373">
@@ -6376,13 +6376,13 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>8336502781</v>
+        <v>8338314823</v>
       </c>
       <c r="C373" t="n">
-        <v>4364360142</v>
+        <v>4364564596</v>
       </c>
       <c r="D373" t="n">
-        <v>3550784412</v>
+        <v>3549612357</v>
       </c>
     </row>
     <row r="374">
@@ -6392,13 +6392,13 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>8375798491</v>
+        <v>8377673192</v>
       </c>
       <c r="C374" t="n">
-        <v>4375061028</v>
+        <v>4375269671</v>
       </c>
       <c r="D374" t="n">
-        <v>3566799316</v>
+        <v>3565632437</v>
       </c>
     </row>
     <row r="375">
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>8406863874</v>
+        <v>8408724664</v>
       </c>
       <c r="C375" t="n">
-        <v>4379776805</v>
+        <v>4379981423</v>
       </c>
       <c r="D375" t="n">
-        <v>3611986706</v>
+        <v>3610813573</v>
       </c>
     </row>
     <row r="376">
@@ -6424,13 +6424,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>8451358619</v>
+        <v>8453436845</v>
       </c>
       <c r="C376" t="n">
-        <v>4390953856</v>
+        <v>4391168866</v>
       </c>
       <c r="D376" t="n">
-        <v>3628524685</v>
+        <v>3627351082</v>
       </c>
     </row>
     <row r="377">
@@ -6440,13 +6440,13 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>8481402977</v>
+        <v>8483475851</v>
       </c>
       <c r="C377" t="n">
-        <v>4396857318</v>
+        <v>4397071554</v>
       </c>
       <c r="D377" t="n">
-        <v>3641092848</v>
+        <v>3639917164</v>
       </c>
     </row>
     <row r="378">
@@ -6456,13 +6456,13 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>8510673035</v>
+        <v>8512734868</v>
       </c>
       <c r="C378" t="n">
-        <v>4401020439</v>
+        <v>4401233782</v>
       </c>
       <c r="D378" t="n">
-        <v>3649531633</v>
+        <v>3648358943</v>
       </c>
     </row>
     <row r="379">
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>8551595569</v>
+        <v>8553855899</v>
       </c>
       <c r="C379" t="n">
-        <v>4408718768</v>
+        <v>4408944700</v>
       </c>
       <c r="D379" t="n">
-        <v>3662759769</v>
+        <v>3661608160</v>
       </c>
     </row>
     <row r="380">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>8590971996</v>
+        <v>8593139293</v>
       </c>
       <c r="C380" t="n">
-        <v>4416065417</v>
+        <v>4416287499</v>
       </c>
       <c r="D380" t="n">
-        <v>3674260147</v>
+        <v>3673104872</v>
       </c>
     </row>
     <row r="381">
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>8623625079</v>
+        <v>8625841747</v>
       </c>
       <c r="C381" t="n">
-        <v>4420572005</v>
+        <v>4420796162</v>
       </c>
       <c r="D381" t="n">
-        <v>3681708395</v>
+        <v>3680564138</v>
       </c>
     </row>
     <row r="382">
@@ -6520,13 +6520,13 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>8667667013</v>
+        <v>8669853807</v>
       </c>
       <c r="C382" t="n">
-        <v>4428318198</v>
+        <v>4428537057</v>
       </c>
       <c r="D382" t="n">
-        <v>3718235052</v>
+        <v>3717085490</v>
       </c>
     </row>
     <row r="383">
@@ -6536,13 +6536,13 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>8702600351</v>
+        <v>8704954674</v>
       </c>
       <c r="C383" t="n">
-        <v>4441520663</v>
+        <v>4441750988</v>
       </c>
       <c r="D383" t="n">
-        <v>3727414853</v>
+        <v>3726272097</v>
       </c>
     </row>
     <row r="384">
@@ -6552,13 +6552,13 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>8736617094</v>
+        <v>8738935794</v>
       </c>
       <c r="C384" t="n">
-        <v>4447491786</v>
+        <v>4447716233</v>
       </c>
       <c r="D384" t="n">
-        <v>3743003365</v>
+        <v>3741856338</v>
       </c>
     </row>
     <row r="385">
@@ -6568,13 +6568,13 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>8781137296</v>
+        <v>8783359368</v>
       </c>
       <c r="C385" t="n">
-        <v>4456839116</v>
+        <v>4457050673</v>
       </c>
       <c r="D385" t="n">
-        <v>3757776713</v>
+        <v>3756628143</v>
       </c>
     </row>
     <row r="386">
@@ -6584,13 +6584,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>8819282509</v>
+        <v>8821525247</v>
       </c>
       <c r="C386" t="n">
-        <v>4462801633</v>
+        <v>4463006008</v>
       </c>
       <c r="D386" t="n">
-        <v>3768525179</v>
+        <v>3767389478</v>
       </c>
     </row>
     <row r="387">
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>8853709297</v>
+        <v>8855967491</v>
       </c>
       <c r="C387" t="n">
-        <v>4468207430</v>
+        <v>4468406553</v>
       </c>
       <c r="D387" t="n">
-        <v>3775534058</v>
+        <v>3774404978</v>
       </c>
     </row>
     <row r="388">
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>8896670261</v>
+        <v>8898788251</v>
       </c>
       <c r="C388" t="n">
-        <v>4476763725</v>
+        <v>4476947590</v>
       </c>
       <c r="D388" t="n">
-        <v>3784826629</v>
+        <v>3783684158</v>
       </c>
     </row>
     <row r="389">
@@ -6632,13 +6632,13 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>8930876231</v>
+        <v>8932964716</v>
       </c>
       <c r="C389" t="n">
-        <v>4482853612</v>
+        <v>4483032917</v>
       </c>
       <c r="D389" t="n">
-        <v>3794742599</v>
+        <v>3793594994</v>
       </c>
     </row>
     <row r="390">
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>8958876787</v>
+        <v>8960957399</v>
       </c>
       <c r="C390" t="n">
-        <v>4486601196</v>
+        <v>4486779996</v>
       </c>
       <c r="D390" t="n">
-        <v>3812858190</v>
+        <v>3811710049</v>
       </c>
     </row>
     <row r="391">
@@ -6664,13 +6664,13 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>8984246951</v>
+        <v>8986319924</v>
       </c>
       <c r="C391" t="n">
-        <v>4489281653</v>
+        <v>4489459237</v>
       </c>
       <c r="D391" t="n">
-        <v>3818828108</v>
+        <v>3817678436</v>
       </c>
     </row>
     <row r="392">
@@ -6680,13 +6680,13 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>9017161153</v>
+        <v>9019242030</v>
       </c>
       <c r="C392" t="n">
-        <v>4495613450</v>
+        <v>4495788479</v>
       </c>
       <c r="D392" t="n">
-        <v>3825501945</v>
+        <v>3824352328</v>
       </c>
     </row>
     <row r="393">
@@ -6696,13 +6696,13 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>9063626063</v>
+        <v>9065737718</v>
       </c>
       <c r="C393" t="n">
-        <v>4539550376</v>
+        <v>4539713585</v>
       </c>
       <c r="D393" t="n">
-        <v>3846223688</v>
+        <v>3845076622</v>
       </c>
     </row>
     <row r="394">
@@ -6712,13 +6712,13 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>9103225935</v>
+        <v>9105323789</v>
       </c>
       <c r="C394" t="n">
-        <v>4545907526</v>
+        <v>4546067238</v>
       </c>
       <c r="D394" t="n">
-        <v>3857379253</v>
+        <v>3856231809</v>
       </c>
     </row>
     <row r="395">
@@ -6728,13 +6728,13 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>9140751014</v>
+        <v>9142776795</v>
       </c>
       <c r="C395" t="n">
-        <v>4551787162</v>
+        <v>4551937507</v>
       </c>
       <c r="D395" t="n">
-        <v>3878107976</v>
+        <v>3876950671</v>
       </c>
     </row>
     <row r="396">
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>9173491555</v>
+        <v>9175452519</v>
       </c>
       <c r="C396" t="n">
-        <v>4558632869</v>
+        <v>4558775041</v>
       </c>
       <c r="D396" t="n">
-        <v>3888880020</v>
+        <v>3887713449</v>
       </c>
     </row>
     <row r="397">
@@ -6760,13 +6760,13 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>9193197019</v>
+        <v>9195158731</v>
       </c>
       <c r="C397" t="n">
-        <v>4563232903</v>
+        <v>4563375295</v>
       </c>
       <c r="D397" t="n">
-        <v>3896526360</v>
+        <v>3895359825</v>
       </c>
     </row>
     <row r="398">
@@ -6776,13 +6776,13 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>9210613658</v>
+        <v>9212576161</v>
       </c>
       <c r="C398" t="n">
-        <v>4569815433</v>
+        <v>4569957716</v>
       </c>
       <c r="D398" t="n">
-        <v>3900004209</v>
+        <v>3898837751</v>
       </c>
     </row>
     <row r="399">
@@ -6792,13 +6792,13 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>9243004794</v>
+        <v>9244971033</v>
       </c>
       <c r="C399" t="n">
-        <v>4578793950</v>
+        <v>4578936967</v>
       </c>
       <c r="D399" t="n">
-        <v>3907837814</v>
+        <v>3906671715</v>
       </c>
     </row>
     <row r="400">
@@ -6808,13 +6808,13 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>9281334940</v>
+        <v>9283303702</v>
       </c>
       <c r="C400" t="n">
-        <v>4591530228</v>
+        <v>4591673583</v>
       </c>
       <c r="D400" t="n">
-        <v>3917559174</v>
+        <v>3916393084</v>
       </c>
     </row>
     <row r="401">
@@ -6824,13 +6824,13 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>9316158075</v>
+        <v>9318128133</v>
       </c>
       <c r="C401" t="n">
-        <v>4601053725</v>
+        <v>4601197133</v>
       </c>
       <c r="D401" t="n">
-        <v>3924249474</v>
+        <v>3923083136</v>
       </c>
     </row>
     <row r="402">
@@ -6840,13 +6840,13 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>9351626319</v>
+        <v>9353598454</v>
       </c>
       <c r="C402" t="n">
-        <v>4610982732</v>
+        <v>4611126334</v>
       </c>
       <c r="D402" t="n">
-        <v>3937532390</v>
+        <v>3936366077</v>
       </c>
     </row>
     <row r="403">
@@ -6856,13 +6856,13 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>9387327127</v>
+        <v>9389301524</v>
       </c>
       <c r="C403" t="n">
-        <v>4625256155</v>
+        <v>4625400039</v>
       </c>
       <c r="D403" t="n">
-        <v>3948927060</v>
+        <v>3947760726</v>
       </c>
     </row>
     <row r="404">
@@ -6872,13 +6872,13 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>9411494831</v>
+        <v>9413470068</v>
       </c>
       <c r="C404" t="n">
-        <v>4629713478</v>
+        <v>4629857384</v>
       </c>
       <c r="D404" t="n">
-        <v>3953338567</v>
+        <v>3952171981</v>
       </c>
     </row>
     <row r="405">
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>9443660706</v>
+        <v>9445636366</v>
       </c>
       <c r="C405" t="n">
-        <v>4638595156</v>
+        <v>4638739074</v>
       </c>
       <c r="D405" t="n">
-        <v>3962534202</v>
+        <v>3961367512</v>
       </c>
     </row>
     <row r="406">
@@ -6904,13 +6904,13 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>9500758924</v>
+        <v>9502737144</v>
       </c>
       <c r="C406" t="n">
-        <v>4660541924</v>
+        <v>4660686152</v>
       </c>
       <c r="D406" t="n">
-        <v>3984751723</v>
+        <v>3983585713</v>
       </c>
     </row>
     <row r="407">
@@ -6920,13 +6920,13 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>9537332268</v>
+        <v>9539313266</v>
       </c>
       <c r="C407" t="n">
-        <v>4670073426</v>
+        <v>4670217922</v>
       </c>
       <c r="D407" t="n">
-        <v>3995135666</v>
+        <v>3993969795</v>
       </c>
     </row>
     <row r="408">
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>9570074152</v>
+        <v>9572057875</v>
       </c>
       <c r="C408" t="n">
-        <v>4680221525</v>
+        <v>4680366228</v>
       </c>
       <c r="D408" t="n">
-        <v>4002864431</v>
+        <v>4001698583</v>
       </c>
     </row>
     <row r="409">
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>9606653235</v>
+        <v>9608639238</v>
       </c>
       <c r="C409" t="n">
-        <v>4688508464</v>
+        <v>4688653338</v>
       </c>
       <c r="D409" t="n">
-        <v>4016362074</v>
+        <v>4015196236</v>
       </c>
     </row>
     <row r="410">
@@ -6968,13 +6968,13 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>9631989629</v>
+        <v>9633978034</v>
       </c>
       <c r="C410" t="n">
-        <v>4696036267</v>
+        <v>4696181352</v>
       </c>
       <c r="D410" t="n">
-        <v>4026136757</v>
+        <v>4024970471</v>
       </c>
     </row>
     <row r="411">
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>9659792011</v>
+        <v>9661781648</v>
       </c>
       <c r="C411" t="n">
-        <v>4705431325</v>
+        <v>4705576484</v>
       </c>
       <c r="D411" t="n">
-        <v>4034338629</v>
+        <v>4033172215</v>
       </c>
     </row>
     <row r="412">
@@ -7000,13 +7000,13 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>9689042690</v>
+        <v>9691032828</v>
       </c>
       <c r="C412" t="n">
-        <v>4713175605</v>
+        <v>4713320789</v>
       </c>
       <c r="D412" t="n">
-        <v>4042705830</v>
+        <v>4041539340</v>
       </c>
     </row>
     <row r="413">
@@ -7016,13 +7016,13 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>9720419062</v>
+        <v>9722411365</v>
       </c>
       <c r="C413" t="n">
-        <v>4722201052</v>
+        <v>4722346490</v>
       </c>
       <c r="D413" t="n">
-        <v>4050938739</v>
+        <v>4049772221</v>
       </c>
     </row>
     <row r="414">
@@ -7032,13 +7032,13 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>9743704971</v>
+        <v>9745700412</v>
       </c>
       <c r="C414" t="n">
-        <v>4727080998</v>
+        <v>4727226724</v>
       </c>
       <c r="D414" t="n">
-        <v>4055987601</v>
+        <v>4054821295</v>
       </c>
     </row>
     <row r="415">
@@ -7048,13 +7048,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>9782155930</v>
+        <v>9784154620</v>
       </c>
       <c r="C415" t="n">
-        <v>4738437516</v>
+        <v>4738583498</v>
       </c>
       <c r="D415" t="n">
-        <v>4070303202</v>
+        <v>4069137168</v>
       </c>
     </row>
     <row r="416">
@@ -7064,13 +7064,13 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>9809097329</v>
+        <v>9811098403</v>
       </c>
       <c r="C416" t="n">
-        <v>4745294227</v>
+        <v>4745440450</v>
       </c>
       <c r="D416" t="n">
-        <v>4078537446</v>
+        <v>4077371507</v>
       </c>
     </row>
     <row r="417">
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>9841302475</v>
+        <v>9843305494</v>
       </c>
       <c r="C417" t="n">
-        <v>4754612959</v>
+        <v>4754759307</v>
       </c>
       <c r="D417" t="n">
-        <v>4091703780</v>
+        <v>4090537979</v>
       </c>
     </row>
     <row r="418">
@@ -7096,13 +7096,13 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>9864010898</v>
+        <v>9866014876</v>
       </c>
       <c r="C418" t="n">
-        <v>4761214222</v>
+        <v>4761360597</v>
       </c>
       <c r="D418" t="n">
-        <v>4099185627</v>
+        <v>4098019942</v>
       </c>
     </row>
     <row r="419">
@@ -7112,13 +7112,13 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>9895618714</v>
+        <v>9897622970</v>
       </c>
       <c r="C419" t="n">
-        <v>4767168876</v>
+        <v>4767315236</v>
       </c>
       <c r="D419" t="n">
-        <v>4104891359</v>
+        <v>4103725619</v>
       </c>
     </row>
     <row r="420">
@@ -7128,13 +7128,13 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>9920006130</v>
+        <v>9922011691</v>
       </c>
       <c r="C420" t="n">
-        <v>4771698339</v>
+        <v>4771844760</v>
       </c>
       <c r="D420" t="n">
-        <v>4110485759</v>
+        <v>4109320154</v>
       </c>
     </row>
     <row r="421">
@@ -7144,13 +7144,13 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>9944465804</v>
+        <v>9946473143</v>
       </c>
       <c r="C421" t="n">
-        <v>4776730986</v>
+        <v>4776877444</v>
       </c>
       <c r="D421" t="n">
-        <v>4117975087</v>
+        <v>4116809722</v>
       </c>
     </row>
     <row r="422">
@@ -7160,13 +7160,13 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>9971273367</v>
+        <v>9973283270</v>
       </c>
       <c r="C422" t="n">
-        <v>4782125265</v>
+        <v>4782271808</v>
       </c>
       <c r="D422" t="n">
-        <v>4125058401</v>
+        <v>4123893271</v>
       </c>
     </row>
     <row r="423">
@@ -7176,13 +7176,13 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>9994029460</v>
+        <v>9996041874</v>
       </c>
       <c r="C423" t="n">
-        <v>4785816517</v>
+        <v>4785963219</v>
       </c>
       <c r="D423" t="n">
-        <v>4131906703</v>
+        <v>4130743760</v>
       </c>
     </row>
     <row r="424">
@@ -7192,13 +7192,13 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>10024663816</v>
+        <v>10026680491</v>
       </c>
       <c r="C424" t="n">
-        <v>4794279058</v>
+        <v>4794426107</v>
       </c>
       <c r="D424" t="n">
-        <v>4143676168</v>
+        <v>4142514251</v>
       </c>
     </row>
     <row r="425">
@@ -7208,13 +7208,13 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>10042700058</v>
+        <v>10044718663</v>
       </c>
       <c r="C425" t="n">
-        <v>4798874277</v>
+        <v>4799021430</v>
       </c>
       <c r="D425" t="n">
-        <v>4149302495</v>
+        <v>4148140864</v>
       </c>
     </row>
     <row r="426">
@@ -7224,13 +7224,13 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>10060397013</v>
+        <v>10062416809</v>
       </c>
       <c r="C426" t="n">
-        <v>4802987603</v>
+        <v>4803134834</v>
       </c>
       <c r="D426" t="n">
-        <v>4156955110</v>
+        <v>4155793729</v>
       </c>
     </row>
     <row r="427">
@@ -7240,13 +7240,13 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>10081353972</v>
+        <v>10083377812</v>
       </c>
       <c r="C427" t="n">
-        <v>4807856237</v>
+        <v>4808003859</v>
       </c>
       <c r="D427" t="n">
-        <v>4165372796</v>
+        <v>4164212148</v>
       </c>
     </row>
     <row r="428">
@@ -7256,13 +7256,13 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>10100447854</v>
+        <v>10102475616</v>
       </c>
       <c r="C428" t="n">
-        <v>4812820813</v>
+        <v>4812969082</v>
       </c>
       <c r="D428" t="n">
-        <v>4173739805</v>
+        <v>4172579822</v>
       </c>
     </row>
     <row r="429">
@@ -7272,13 +7272,13 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>10120015328</v>
+        <v>10122047499</v>
       </c>
       <c r="C429" t="n">
-        <v>4818355240</v>
+        <v>4818504436</v>
       </c>
       <c r="D429" t="n">
-        <v>4181368024</v>
+        <v>4180208931</v>
       </c>
     </row>
     <row r="430">
@@ -7288,13 +7288,13 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>10136159866</v>
+        <v>10138196102</v>
       </c>
       <c r="C430" t="n">
-        <v>4822071481</v>
+        <v>4822221069</v>
       </c>
       <c r="D430" t="n">
-        <v>4187292791</v>
+        <v>4186134363</v>
       </c>
     </row>
     <row r="431">
@@ -7304,13 +7304,13 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>10158345596</v>
+        <v>10160384493</v>
       </c>
       <c r="C431" t="n">
-        <v>4827886847</v>
+        <v>4828036602</v>
       </c>
       <c r="D431" t="n">
-        <v>4197768848</v>
+        <v>4196610922</v>
       </c>
     </row>
     <row r="432">
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>10173646075</v>
+        <v>10175686080</v>
       </c>
       <c r="C432" t="n">
-        <v>4831582264</v>
+        <v>4831732127</v>
       </c>
       <c r="D432" t="n">
-        <v>4204237267</v>
+        <v>4203079412</v>
       </c>
     </row>
     <row r="433">
@@ -7336,13 +7336,13 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>10241186017</v>
+        <v>10243226690</v>
       </c>
       <c r="C433" t="n">
-        <v>4837068292</v>
+        <v>4837218167</v>
       </c>
       <c r="D433" t="n">
-        <v>4211289084</v>
+        <v>4210131284</v>
       </c>
     </row>
     <row r="434">
@@ -7352,13 +7352,13 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>10262214176</v>
+        <v>10264256774</v>
       </c>
       <c r="C434" t="n">
-        <v>4843217354</v>
+        <v>4843367352</v>
       </c>
       <c r="D434" t="n">
-        <v>4216440288</v>
+        <v>4215282720</v>
       </c>
     </row>
     <row r="435">
@@ -7368,13 +7368,13 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>10288215334</v>
+        <v>10290259727</v>
       </c>
       <c r="C435" t="n">
-        <v>4847845755</v>
+        <v>4847995822</v>
       </c>
       <c r="D435" t="n">
-        <v>4225630900</v>
+        <v>4224473739</v>
       </c>
     </row>
     <row r="436">
@@ -7384,13 +7384,13 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>10316787760</v>
+        <v>10318834166</v>
       </c>
       <c r="C436" t="n">
-        <v>4852855408</v>
+        <v>4853005547</v>
       </c>
       <c r="D436" t="n">
-        <v>4233865250</v>
+        <v>4232708317</v>
       </c>
     </row>
     <row r="437">
@@ -7400,13 +7400,13 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>10339365214</v>
+        <v>10341413824</v>
       </c>
       <c r="C437" t="n">
-        <v>4856734486</v>
+        <v>4856884714</v>
       </c>
       <c r="D437" t="n">
-        <v>4240998465</v>
+        <v>4239841859</v>
       </c>
     </row>
     <row r="438">
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>10368917957</v>
+        <v>10370968366</v>
       </c>
       <c r="C438" t="n">
-        <v>4861575277</v>
+        <v>4861725663</v>
       </c>
       <c r="D438" t="n">
-        <v>4251346353</v>
+        <v>4250190121</v>
       </c>
     </row>
     <row r="439">
@@ -7432,13 +7432,13 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>10387907447</v>
+        <v>10389958768</v>
       </c>
       <c r="C439" t="n">
-        <v>4864796989</v>
+        <v>4864947430</v>
       </c>
       <c r="D439" t="n">
-        <v>4256471455</v>
+        <v>4255315456</v>
       </c>
     </row>
     <row r="440">
@@ -7448,13 +7448,13 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>10414850575</v>
+        <v>10416902365</v>
       </c>
       <c r="C440" t="n">
-        <v>4871763681</v>
+        <v>4871914143</v>
       </c>
       <c r="D440" t="n">
-        <v>4265679978</v>
+        <v>4264524048</v>
       </c>
     </row>
     <row r="441">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>10436186788</v>
+        <v>10438239827</v>
       </c>
       <c r="C441" t="n">
-        <v>4875031108</v>
+        <v>4875181651</v>
       </c>
       <c r="D441" t="n">
-        <v>4270935860</v>
+        <v>4269780165</v>
       </c>
     </row>
     <row r="442">
@@ -7480,13 +7480,13 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>10457519796</v>
+        <v>10459574265</v>
       </c>
       <c r="C442" t="n">
-        <v>4880795050</v>
+        <v>4880899888</v>
       </c>
       <c r="D442" t="n">
-        <v>4280715679</v>
+        <v>4279522790</v>
       </c>
     </row>
     <row r="443">
@@ -7496,13 +7496,13 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>10480075382</v>
+        <v>10482132057</v>
       </c>
       <c r="C443" t="n">
-        <v>4884781359</v>
+        <v>4884886261</v>
       </c>
       <c r="D443" t="n">
-        <v>4286521228</v>
+        <v>4285328633</v>
       </c>
     </row>
     <row r="444">
@@ -7512,13 +7512,13 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>10504800312</v>
+        <v>10506859091</v>
       </c>
       <c r="C444" t="n">
-        <v>4887910176</v>
+        <v>4888015144</v>
       </c>
       <c r="D444" t="n">
-        <v>4293191866</v>
+        <v>4291999585</v>
       </c>
     </row>
     <row r="445">
@@ -7528,13 +7528,13 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>10549946502</v>
+        <v>10552007321</v>
       </c>
       <c r="C445" t="n">
-        <v>4899714630</v>
+        <v>4899819711</v>
       </c>
       <c r="D445" t="n">
-        <v>4318118712</v>
+        <v>4316926875</v>
       </c>
     </row>
     <row r="446">
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>10579493454</v>
+        <v>10581554987</v>
       </c>
       <c r="C446" t="n">
-        <v>4908609845</v>
+        <v>4908714940</v>
       </c>
       <c r="D446" t="n">
-        <v>4327019072</v>
+        <v>4325827440</v>
       </c>
     </row>
     <row r="447">
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>10597147581</v>
+        <v>10599209618</v>
       </c>
       <c r="C447" t="n">
-        <v>4912984210</v>
+        <v>4913089342</v>
       </c>
       <c r="D447" t="n">
-        <v>4331720914</v>
+        <v>4330529315</v>
       </c>
     </row>
     <row r="448">
@@ -7576,13 +7576,13 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>10625908282</v>
+        <v>10627971664</v>
       </c>
       <c r="C448" t="n">
-        <v>4921365659</v>
+        <v>4921470874</v>
       </c>
       <c r="D448" t="n">
-        <v>4340124194</v>
+        <v>4338932763</v>
       </c>
     </row>
     <row r="449">
@@ -7592,13 +7592,13 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>10648206449</v>
+        <v>10650271286</v>
       </c>
       <c r="C449" t="n">
-        <v>4925866308</v>
+        <v>4925971600</v>
       </c>
       <c r="D449" t="n">
-        <v>4346755010</v>
+        <v>4345564018</v>
       </c>
     </row>
     <row r="450">
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>10667592066</v>
+        <v>10669658290</v>
       </c>
       <c r="C450" t="n">
-        <v>4928459216</v>
+        <v>4928564579</v>
       </c>
       <c r="D450" t="n">
-        <v>4351989417</v>
+        <v>4350798770</v>
       </c>
     </row>
     <row r="451">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>10690374038</v>
+        <v>10692441983</v>
       </c>
       <c r="C451" t="n">
-        <v>4944073494</v>
+        <v>4944178893</v>
       </c>
       <c r="D451" t="n">
-        <v>4356991524</v>
+        <v>4355801058</v>
       </c>
     </row>
     <row r="452">
@@ -7640,13 +7640,13 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>10710812788</v>
+        <v>10712881902</v>
       </c>
       <c r="C452" t="n">
-        <v>4948663511</v>
+        <v>4948768971</v>
       </c>
       <c r="D452" t="n">
-        <v>4364452217</v>
+        <v>4363261918</v>
       </c>
     </row>
     <row r="453">
@@ -7656,13 +7656,13 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>10726832239</v>
+        <v>10728901782</v>
       </c>
       <c r="C453" t="n">
-        <v>4951680177</v>
+        <v>4951785636</v>
       </c>
       <c r="D453" t="n">
-        <v>4369446695</v>
+        <v>4368256523</v>
       </c>
     </row>
     <row r="454">
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>10739919634</v>
+        <v>10741989340</v>
       </c>
       <c r="C454" t="n">
-        <v>4954976101</v>
+        <v>4955081556</v>
       </c>
       <c r="D454" t="n">
-        <v>4371962491</v>
+        <v>4370772334</v>
       </c>
     </row>
     <row r="455">
@@ -7688,13 +7688,13 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>10787812419</v>
+        <v>10789883040</v>
       </c>
       <c r="C455" t="n">
-        <v>4978913734</v>
+        <v>4979019204</v>
       </c>
       <c r="D455" t="n">
-        <v>4383465877</v>
+        <v>4382275891</v>
       </c>
     </row>
     <row r="456">
@@ -7704,13 +7704,13 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>10801189446</v>
+        <v>10803261162</v>
       </c>
       <c r="C456" t="n">
-        <v>4980679675</v>
+        <v>4980784996</v>
       </c>
       <c r="D456" t="n">
-        <v>4386074900</v>
+        <v>4384885019</v>
       </c>
     </row>
     <row r="457">
@@ -7720,13 +7720,13 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>10817866504</v>
+        <v>10819939503</v>
       </c>
       <c r="C457" t="n">
-        <v>4982614259</v>
+        <v>4982719645</v>
       </c>
       <c r="D457" t="n">
-        <v>4388612507</v>
+        <v>4387422687</v>
       </c>
     </row>
     <row r="458">
@@ -7736,13 +7736,13 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>10832990052</v>
+        <v>10835064589</v>
       </c>
       <c r="C458" t="n">
-        <v>4984089991</v>
+        <v>4984195433</v>
       </c>
       <c r="D458" t="n">
-        <v>4394546351</v>
+        <v>4393356683</v>
       </c>
     </row>
     <row r="459">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>10849890899</v>
+        <v>10851966749</v>
       </c>
       <c r="C459" t="n">
-        <v>4986928316</v>
+        <v>4987033850</v>
       </c>
       <c r="D459" t="n">
-        <v>4398819747</v>
+        <v>4397630229</v>
       </c>
     </row>
     <row r="460">
@@ -7768,13 +7768,13 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>10871391616</v>
+        <v>10873468085</v>
       </c>
       <c r="C460" t="n">
-        <v>4991138106</v>
+        <v>4991243669</v>
       </c>
       <c r="D460" t="n">
-        <v>4405475638</v>
+        <v>4404286198</v>
       </c>
     </row>
     <row r="461">
@@ -7784,13 +7784,13 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>10897384952</v>
+        <v>10899461284</v>
       </c>
       <c r="C461" t="n">
-        <v>4998816712</v>
+        <v>4998922276</v>
       </c>
       <c r="D461" t="n">
-        <v>4433083086</v>
+        <v>4431893673</v>
       </c>
     </row>
     <row r="462">
@@ -7800,13 +7800,13 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>10912577327</v>
+        <v>10914654497</v>
       </c>
       <c r="C462" t="n">
-        <v>5000322691</v>
+        <v>5000428309</v>
       </c>
       <c r="D462" t="n">
-        <v>4437015432</v>
+        <v>4435825937</v>
       </c>
     </row>
     <row r="463">
@@ -7816,13 +7816,13 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>10928466781</v>
+        <v>10930544985</v>
       </c>
       <c r="C463" t="n">
-        <v>5003076201</v>
+        <v>5003181860</v>
       </c>
       <c r="D463" t="n">
-        <v>4442389187</v>
+        <v>4441199823</v>
       </c>
     </row>
     <row r="464">
@@ -7832,13 +7832,13 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>10946141302</v>
+        <v>10948220708</v>
       </c>
       <c r="C464" t="n">
-        <v>5005744785</v>
+        <v>5005850562</v>
       </c>
       <c r="D464" t="n">
-        <v>4447870651</v>
+        <v>4446681380</v>
       </c>
     </row>
     <row r="465">
@@ -7848,13 +7848,13 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>10962793069</v>
+        <v>10964873721</v>
       </c>
       <c r="C465" t="n">
-        <v>5008989194</v>
+        <v>5009095014</v>
       </c>
       <c r="D465" t="n">
-        <v>4453948877</v>
+        <v>4452759739</v>
       </c>
     </row>
     <row r="466">
@@ -7864,13 +7864,13 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>10978282738</v>
+        <v>10980223706</v>
       </c>
       <c r="C466" t="n">
-        <v>5010825730</v>
+        <v>5010924378</v>
       </c>
       <c r="D466" t="n">
-        <v>4458685022</v>
+        <v>4457479820</v>
       </c>
     </row>
     <row r="467">
@@ -7880,13 +7880,13 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>10992714989</v>
+        <v>10994656400</v>
       </c>
       <c r="C467" t="n">
-        <v>5012568054</v>
+        <v>5012666679</v>
       </c>
       <c r="D467" t="n">
-        <v>4461641323</v>
+        <v>4460436185</v>
       </c>
     </row>
     <row r="468">
@@ -7896,13 +7896,13 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>11006168766</v>
+        <v>11008109625</v>
       </c>
       <c r="C468" t="n">
-        <v>5015884567</v>
+        <v>5015983138</v>
       </c>
       <c r="D468" t="n">
-        <v>4468208178</v>
+        <v>4467003068</v>
       </c>
     </row>
     <row r="469">
@@ -7912,13 +7912,13 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>11019945415</v>
+        <v>11021887022</v>
       </c>
       <c r="C469" t="n">
-        <v>5020260440</v>
+        <v>5020358956</v>
       </c>
       <c r="D469" t="n">
-        <v>4480956917</v>
+        <v>4479751866</v>
       </c>
     </row>
     <row r="470">
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>11037272018</v>
+        <v>11039214898</v>
       </c>
       <c r="C470" t="n">
-        <v>5024665344</v>
+        <v>5024763858</v>
       </c>
       <c r="D470" t="n">
-        <v>4486088551</v>
+        <v>4484883691</v>
       </c>
     </row>
     <row r="471">
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>11053083694</v>
+        <v>11055027716</v>
       </c>
       <c r="C471" t="n">
-        <v>5025985502</v>
+        <v>5026084041</v>
       </c>
       <c r="D471" t="n">
-        <v>4489929858</v>
+        <v>4488725104</v>
       </c>
     </row>
     <row r="472">
@@ -7960,13 +7960,13 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>11067592482</v>
+        <v>11069537757</v>
       </c>
       <c r="C472" t="n">
-        <v>5029866190</v>
+        <v>5029964778</v>
       </c>
       <c r="D472" t="n">
-        <v>4493511011</v>
+        <v>4492306331</v>
       </c>
     </row>
     <row r="473">
@@ -7976,13 +7976,13 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>11084155321</v>
+        <v>11086101575</v>
       </c>
       <c r="C473" t="n">
-        <v>5033806382</v>
+        <v>5033904987</v>
       </c>
       <c r="D473" t="n">
-        <v>4497907551</v>
+        <v>4496703002</v>
       </c>
     </row>
     <row r="474">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>11095131533</v>
+        <v>11097078424</v>
       </c>
       <c r="C474" t="n">
-        <v>5035338947</v>
+        <v>5035437550</v>
       </c>
       <c r="D474" t="n">
-        <v>4499582366</v>
+        <v>4498377882</v>
       </c>
     </row>
     <row r="475">
@@ -8008,13 +8008,13 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>11105957635</v>
+        <v>11107903854</v>
       </c>
       <c r="C475" t="n">
-        <v>5037334131</v>
+        <v>5037432730</v>
       </c>
       <c r="D475" t="n">
-        <v>4502379919</v>
+        <v>4501175440</v>
       </c>
     </row>
     <row r="476">
@@ -8024,13 +8024,13 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>11118242262</v>
+        <v>11120188604</v>
       </c>
       <c r="C476" t="n">
-        <v>5040806938</v>
+        <v>5040905546</v>
       </c>
       <c r="D476" t="n">
-        <v>4506383404</v>
+        <v>4505178944</v>
       </c>
     </row>
     <row r="477">
@@ -8040,13 +8040,13 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>11134534250</v>
+        <v>11136480876</v>
       </c>
       <c r="C477" t="n">
-        <v>5043824118</v>
+        <v>5043922727</v>
       </c>
       <c r="D477" t="n">
-        <v>4510084314</v>
+        <v>4508879751</v>
       </c>
     </row>
     <row r="478">
@@ -8056,13 +8056,13 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>11151789586</v>
+        <v>11153736751</v>
       </c>
       <c r="C478" t="n">
-        <v>5048369440</v>
+        <v>5048468092</v>
       </c>
       <c r="D478" t="n">
-        <v>4514510080</v>
+        <v>4513305518</v>
       </c>
     </row>
     <row r="479">
@@ -8072,13 +8072,13 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>11169314915</v>
+        <v>11171262978</v>
       </c>
       <c r="C479" t="n">
-        <v>5053284261</v>
+        <v>5053382960</v>
       </c>
       <c r="D479" t="n">
-        <v>4518357121</v>
+        <v>4517152583</v>
       </c>
     </row>
     <row r="480">
@@ -8088,13 +8088,13 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>11182939913</v>
+        <v>11184888819</v>
       </c>
       <c r="C480" t="n">
-        <v>5055929768</v>
+        <v>5056028521</v>
       </c>
       <c r="D480" t="n">
-        <v>4520776950</v>
+        <v>4519572489</v>
       </c>
     </row>
     <row r="481">
@@ -8104,13 +8104,13 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>11195934840</v>
+        <v>11197884353</v>
       </c>
       <c r="C481" t="n">
-        <v>5059570593</v>
+        <v>5059669369</v>
       </c>
       <c r="D481" t="n">
-        <v>4524564569</v>
+        <v>4523360146</v>
       </c>
     </row>
     <row r="482">
@@ -8120,13 +8120,13 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>11210048071</v>
+        <v>11211997185</v>
       </c>
       <c r="C482" t="n">
-        <v>5062706555</v>
+        <v>5062805331</v>
       </c>
       <c r="D482" t="n">
-        <v>4529191290</v>
+        <v>4527986890</v>
       </c>
     </row>
     <row r="483">
@@ -8136,13 +8136,13 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>11232602817</v>
+        <v>11234552698</v>
       </c>
       <c r="C483" t="n">
-        <v>5064331114</v>
+        <v>5064429868</v>
       </c>
       <c r="D483" t="n">
-        <v>4537270159</v>
+        <v>4536065888</v>
       </c>
     </row>
     <row r="484">
@@ -8152,13 +8152,13 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>11253185428</v>
+        <v>11255136118</v>
       </c>
       <c r="C484" t="n">
-        <v>5066970425</v>
+        <v>5067069262</v>
       </c>
       <c r="D484" t="n">
-        <v>4545107984</v>
+        <v>4543903940</v>
       </c>
     </row>
     <row r="485">
@@ -8168,13 +8168,13 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>11271070999</v>
+        <v>11273022586</v>
       </c>
       <c r="C485" t="n">
-        <v>5070193020</v>
+        <v>5070291831</v>
       </c>
       <c r="D485" t="n">
-        <v>4551321783</v>
+        <v>4550117820</v>
       </c>
     </row>
     <row r="486">
@@ -8184,13 +8184,13 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>11305777675</v>
+        <v>11307657315</v>
       </c>
       <c r="C486" t="n">
-        <v>5079710377</v>
+        <v>5079809245</v>
       </c>
       <c r="D486" t="n">
-        <v>4570047716</v>
+        <v>4568843918</v>
       </c>
     </row>
     <row r="487">
@@ -8200,13 +8200,13 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>11314096529</v>
+        <v>11315977822</v>
       </c>
       <c r="C487" t="n">
-        <v>5081707771</v>
+        <v>5081806710</v>
       </c>
       <c r="D487" t="n">
-        <v>4571838627</v>
+        <v>4570634969</v>
       </c>
     </row>
     <row r="488">
@@ -8216,13 +8216,13 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>11320200176</v>
+        <v>11322082490</v>
       </c>
       <c r="C488" t="n">
-        <v>5082717730</v>
+        <v>5082816715</v>
       </c>
       <c r="D488" t="n">
-        <v>4572621581</v>
+        <v>4571417976</v>
       </c>
     </row>
     <row r="489">
@@ -8232,13 +8232,13 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>11331111491</v>
+        <v>11332993626</v>
       </c>
       <c r="C489" t="n">
-        <v>5083783014</v>
+        <v>5083882031</v>
       </c>
       <c r="D489" t="n">
-        <v>4576686208</v>
+        <v>4575482612</v>
       </c>
     </row>
     <row r="490">
@@ -8248,13 +8248,13 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>11345628444</v>
+        <v>11347512145</v>
       </c>
       <c r="C490" t="n">
-        <v>5086332950</v>
+        <v>5086432135</v>
       </c>
       <c r="D490" t="n">
-        <v>4580015134</v>
+        <v>4578811643</v>
       </c>
     </row>
     <row r="491">
@@ -8264,13 +8264,13 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>11357391635</v>
+        <v>11359276966</v>
       </c>
       <c r="C491" t="n">
-        <v>5088998291</v>
+        <v>5089097769</v>
       </c>
       <c r="D491" t="n">
-        <v>4583007471</v>
+        <v>4581804265</v>
       </c>
     </row>
     <row r="492">
@@ -8280,13 +8280,13 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>11367308848</v>
+        <v>11369195796</v>
       </c>
       <c r="C492" t="n">
-        <v>5090670400</v>
+        <v>5090770139</v>
       </c>
       <c r="D492" t="n">
-        <v>4585597042</v>
+        <v>4584394093</v>
       </c>
     </row>
     <row r="493">
@@ -8296,13 +8296,13 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>11380087223</v>
+        <v>11381975707</v>
       </c>
       <c r="C493" t="n">
-        <v>5093712868</v>
+        <v>5093812845</v>
       </c>
       <c r="D493" t="n">
-        <v>4591560027</v>
+        <v>4590357209</v>
       </c>
     </row>
     <row r="494">
@@ -8312,13 +8312,13 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>11391272908</v>
+        <v>11393163480</v>
       </c>
       <c r="C494" t="n">
-        <v>5095162444</v>
+        <v>5095262778</v>
       </c>
       <c r="D494" t="n">
-        <v>4593730472</v>
+        <v>4592527741</v>
       </c>
     </row>
     <row r="495">
@@ -8328,13 +8328,13 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>11401032199</v>
+        <v>11402923678</v>
       </c>
       <c r="C495" t="n">
-        <v>5098272046</v>
+        <v>5098372460</v>
       </c>
       <c r="D495" t="n">
-        <v>4596913989</v>
+        <v>4595711291</v>
       </c>
     </row>
     <row r="496">
@@ -8344,13 +8344,13 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>11416393365</v>
+        <v>11418284873</v>
       </c>
       <c r="C496" t="n">
-        <v>5101410522</v>
+        <v>5101510964</v>
       </c>
       <c r="D496" t="n">
-        <v>4605535662</v>
+        <v>4604333018</v>
       </c>
     </row>
     <row r="497">
@@ -8360,13 +8360,13 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>11426016102</v>
+        <v>11427908839</v>
       </c>
       <c r="C497" t="n">
-        <v>5103865678</v>
+        <v>5103966198</v>
       </c>
       <c r="D497" t="n">
-        <v>4609220076</v>
+        <v>4608017532</v>
       </c>
     </row>
     <row r="498">
@@ -8376,13 +8376,13 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>11438353073</v>
+        <v>11440247025</v>
       </c>
       <c r="C498" t="n">
-        <v>5106344123</v>
+        <v>5106444741</v>
       </c>
       <c r="D498" t="n">
-        <v>4612673307</v>
+        <v>4611470873</v>
       </c>
     </row>
     <row r="499">
@@ -8392,13 +8392,13 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>11449484238</v>
+        <v>11451379218</v>
       </c>
       <c r="C499" t="n">
-        <v>5107348562</v>
+        <v>5107449284</v>
       </c>
       <c r="D499" t="n">
-        <v>4614351099</v>
+        <v>4613148738</v>
       </c>
     </row>
     <row r="500">
@@ -8408,13 +8408,13 @@
         </is>
       </c>
       <c r="B500" t="n">
-        <v>11458099030</v>
+        <v>11459995054</v>
       </c>
       <c r="C500" t="n">
-        <v>5108488510</v>
+        <v>5108589294</v>
       </c>
       <c r="D500" t="n">
-        <v>4616242468</v>
+        <v>4615040239</v>
       </c>
     </row>
     <row r="501">
@@ -8424,13 +8424,13 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>11464157494</v>
+        <v>11466054651</v>
       </c>
       <c r="C501" t="n">
-        <v>5109005336</v>
+        <v>5109106187</v>
       </c>
       <c r="D501" t="n">
-        <v>4617270047</v>
+        <v>4616067892</v>
       </c>
     </row>
     <row r="502">
@@ -8440,13 +8440,13 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>11468290979</v>
+        <v>11470188955</v>
       </c>
       <c r="C502" t="n">
-        <v>5109295152</v>
+        <v>5109396113</v>
       </c>
       <c r="D502" t="n">
-        <v>4617772887</v>
+        <v>4616570764</v>
       </c>
     </row>
     <row r="503">
@@ -8456,13 +8456,13 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>11478676115</v>
+        <v>11480574051</v>
       </c>
       <c r="C503" t="n">
-        <v>5110241214</v>
+        <v>5110342257</v>
       </c>
       <c r="D503" t="n">
-        <v>4619311227</v>
+        <v>4618109134</v>
       </c>
     </row>
     <row r="504">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>11489316649</v>
+        <v>11491215816</v>
       </c>
       <c r="C504" t="n">
-        <v>5113502075</v>
+        <v>5113603187</v>
       </c>
       <c r="D504" t="n">
-        <v>4624364103</v>
+        <v>4623162123</v>
       </c>
     </row>
     <row r="505">
@@ -8488,13 +8488,13 @@
         </is>
       </c>
       <c r="B505" t="n">
-        <v>11500583768</v>
+        <v>11502484568</v>
       </c>
       <c r="C505" t="n">
-        <v>5115251146</v>
+        <v>5115352407</v>
       </c>
       <c r="D505" t="n">
-        <v>4626936440</v>
+        <v>4625734602</v>
       </c>
     </row>
     <row r="506">
@@ -8504,13 +8504,13 @@
         </is>
       </c>
       <c r="B506" t="n">
-        <v>11509051800</v>
+        <v>11510954336</v>
       </c>
       <c r="C506" t="n">
-        <v>5116002575</v>
+        <v>5116103982</v>
       </c>
       <c r="D506" t="n">
-        <v>4628400614</v>
+        <v>4627198925</v>
       </c>
     </row>
     <row r="507">
@@ -8520,13 +8520,13 @@
         </is>
       </c>
       <c r="B507" t="n">
-        <v>11520615484</v>
+        <v>11522521145</v>
       </c>
       <c r="C507" t="n">
-        <v>5117146655</v>
+        <v>5117248346</v>
       </c>
       <c r="D507" t="n">
-        <v>4630444121</v>
+        <v>4629242876</v>
       </c>
     </row>
     <row r="508">
@@ -8536,13 +8536,13 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>11529387006</v>
+        <v>11531295401</v>
       </c>
       <c r="C508" t="n">
-        <v>5118192265</v>
+        <v>5118294651</v>
       </c>
       <c r="D508" t="n">
-        <v>4632671685</v>
+        <v>4631470670</v>
       </c>
     </row>
     <row r="509">
@@ -8552,13 +8552,13 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>11539011097</v>
+        <v>11540921056</v>
       </c>
       <c r="C509" t="n">
-        <v>5119936403</v>
+        <v>5120039317</v>
       </c>
       <c r="D509" t="n">
-        <v>4634485515</v>
+        <v>4633284598</v>
       </c>
     </row>
     <row r="510">
@@ -8568,13 +8568,13 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>11548812692</v>
+        <v>11550723389</v>
       </c>
       <c r="C510" t="n">
-        <v>5121782444</v>
+        <v>5121885893</v>
       </c>
       <c r="D510" t="n">
-        <v>4637842484</v>
+        <v>4636641603</v>
       </c>
     </row>
     <row r="511">
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>11557613474</v>
+        <v>11559526150</v>
       </c>
       <c r="C511" t="n">
-        <v>5122906395</v>
+        <v>5123010321</v>
       </c>
       <c r="D511" t="n">
-        <v>4639596607</v>
+        <v>4638395858</v>
       </c>
     </row>
     <row r="512">
@@ -8600,13 +8600,13 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>11578133044</v>
+        <v>11579918677</v>
       </c>
       <c r="C512" t="n">
-        <v>5133542555</v>
+        <v>5133647094</v>
       </c>
       <c r="D512" t="n">
-        <v>4646657721</v>
+        <v>4645457044</v>
       </c>
     </row>
     <row r="513">
@@ -8616,13 +8616,13 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>11588673146</v>
+        <v>11590462713</v>
       </c>
       <c r="C513" t="n">
-        <v>5137146346</v>
+        <v>5137251582</v>
       </c>
       <c r="D513" t="n">
-        <v>4651626357</v>
+        <v>4650425908</v>
       </c>
     </row>
     <row r="514">
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>11598109349</v>
+        <v>11599903460</v>
       </c>
       <c r="C514" t="n">
-        <v>5138600103</v>
+        <v>5138706085</v>
       </c>
       <c r="D514" t="n">
-        <v>4654530768</v>
+        <v>4653330601</v>
       </c>
     </row>
     <row r="515">
@@ -8648,13 +8648,13 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>11609012148</v>
+        <v>11610810147</v>
       </c>
       <c r="C515" t="n">
-        <v>5140156745</v>
+        <v>5140263371</v>
       </c>
       <c r="D515" t="n">
-        <v>4658435509</v>
+        <v>4657235685</v>
       </c>
     </row>
     <row r="516">
@@ -8664,13 +8664,13 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>11616270834</v>
+        <v>11618071178</v>
       </c>
       <c r="C516" t="n">
-        <v>5141527794</v>
+        <v>5141635003</v>
       </c>
       <c r="D516" t="n">
-        <v>4660734445</v>
+        <v>4659534749</v>
       </c>
     </row>
     <row r="517">
@@ -8680,13 +8680,13 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>11633194688</v>
+        <v>11634996013</v>
       </c>
       <c r="C517" t="n">
-        <v>5144704591</v>
+        <v>5144811843</v>
       </c>
       <c r="D517" t="n">
-        <v>4664538364</v>
+        <v>4663338741</v>
       </c>
     </row>
     <row r="518">
@@ -8696,13 +8696,13 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>11637650257</v>
+        <v>11639454158</v>
       </c>
       <c r="C518" t="n">
-        <v>5145066678</v>
+        <v>5145174098</v>
       </c>
       <c r="D518" t="n">
-        <v>4665705159</v>
+        <v>4664505794</v>
       </c>
     </row>
     <row r="519">
@@ -8712,13 +8712,13 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>11643193787</v>
+        <v>11645000682</v>
       </c>
       <c r="C519" t="n">
-        <v>5145762850</v>
+        <v>5145870395</v>
       </c>
       <c r="D519" t="n">
-        <v>4667437713</v>
+        <v>4666238815</v>
       </c>
     </row>
     <row r="520">
@@ -8728,13 +8728,13 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>11647948451</v>
+        <v>11649758853</v>
       </c>
       <c r="C520" t="n">
-        <v>5146343403</v>
+        <v>5146451118</v>
       </c>
       <c r="D520" t="n">
-        <v>4668445034</v>
+        <v>4667246486</v>
       </c>
     </row>
     <row r="521">
@@ -8744,13 +8744,13 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>11653230007</v>
+        <v>11655044210</v>
       </c>
       <c r="C521" t="n">
-        <v>5148112274</v>
+        <v>5148220130</v>
       </c>
       <c r="D521" t="n">
-        <v>4671506150</v>
+        <v>4670307930</v>
       </c>
     </row>
     <row r="522">
@@ -8760,13 +8760,13 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>11665219489</v>
+        <v>11667037243</v>
       </c>
       <c r="C522" t="n">
-        <v>5149773664</v>
+        <v>5149881674</v>
       </c>
       <c r="D522" t="n">
-        <v>4673618650</v>
+        <v>4672420782</v>
       </c>
     </row>
     <row r="523">
@@ -8776,13 +8776,13 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>11671027311</v>
+        <v>11672846993</v>
       </c>
       <c r="C523" t="n">
-        <v>5150582115</v>
+        <v>5150690204</v>
       </c>
       <c r="D523" t="n">
-        <v>4675800636</v>
+        <v>4674603016</v>
       </c>
     </row>
     <row r="524">
@@ -8792,13 +8792,13 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>11679130087</v>
+        <v>11680950158</v>
       </c>
       <c r="C524" t="n">
-        <v>5157240558</v>
+        <v>5157348663</v>
       </c>
       <c r="D524" t="n">
-        <v>4679844902</v>
+        <v>4678647350</v>
       </c>
     </row>
     <row r="525">
@@ -8808,13 +8808,13 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>11684337621</v>
+        <v>11686161698</v>
       </c>
       <c r="C525" t="n">
-        <v>5157852100</v>
+        <v>5157960330</v>
       </c>
       <c r="D525" t="n">
-        <v>4681436120</v>
+        <v>4680238815</v>
       </c>
     </row>
     <row r="526">
@@ -8824,13 +8824,13 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>11692178638</v>
+        <v>11694006897</v>
       </c>
       <c r="C526" t="n">
-        <v>5158852601</v>
+        <v>5158961052</v>
       </c>
       <c r="D526" t="n">
-        <v>4683848741</v>
+        <v>4682651648</v>
       </c>
     </row>
     <row r="527">
@@ -8840,13 +8840,13 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>11700772659</v>
+        <v>11702607244</v>
       </c>
       <c r="C527" t="n">
-        <v>5159642146</v>
+        <v>5159750746</v>
       </c>
       <c r="D527" t="n">
-        <v>4686600941</v>
+        <v>4685404196</v>
       </c>
     </row>
     <row r="528">
@@ -8856,13 +8856,13 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>11707733621</v>
+        <v>11709573461</v>
       </c>
       <c r="C528" t="n">
-        <v>5161639460</v>
+        <v>5161748256</v>
       </c>
       <c r="D528" t="n">
-        <v>4689987066</v>
+        <v>4688790758</v>
       </c>
     </row>
     <row r="529">
@@ -8872,13 +8872,13 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>11718644549</v>
+        <v>11720490636</v>
       </c>
       <c r="C529" t="n">
-        <v>5162539205</v>
+        <v>5162648255</v>
       </c>
       <c r="D529" t="n">
-        <v>4692028019</v>
+        <v>4690832056</v>
       </c>
     </row>
     <row r="530">
@@ -8888,13 +8888,13 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>11724171868</v>
+        <v>11726020697</v>
       </c>
       <c r="C530" t="n">
-        <v>5163328001</v>
+        <v>5163437073</v>
       </c>
       <c r="D530" t="n">
-        <v>4693831891</v>
+        <v>4692636127</v>
       </c>
     </row>
     <row r="531">
@@ -8904,13 +8904,13 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>11732926072</v>
+        <v>11734776091</v>
       </c>
       <c r="C531" t="n">
-        <v>5164989582</v>
+        <v>5165098645</v>
       </c>
       <c r="D531" t="n">
-        <v>4697602813</v>
+        <v>4696407328</v>
       </c>
     </row>
     <row r="532">
@@ -8920,13 +8920,13 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>11738914638</v>
+        <v>11740721371</v>
       </c>
       <c r="C532" t="n">
-        <v>5166382207</v>
+        <v>5166491443</v>
       </c>
       <c r="D532" t="n">
-        <v>4698514975</v>
+        <v>4697277021</v>
       </c>
     </row>
     <row r="533">
@@ -8936,13 +8936,13 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>11743968044</v>
+        <v>11745780745</v>
       </c>
       <c r="C533" t="n">
-        <v>5166953972</v>
+        <v>5167063335</v>
       </c>
       <c r="D533" t="n">
-        <v>4699660101</v>
+        <v>4698422477</v>
       </c>
     </row>
     <row r="534">
@@ -8952,13 +8952,13 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>11752063226</v>
+        <v>11753879950</v>
       </c>
       <c r="C534" t="n">
-        <v>5167960319</v>
+        <v>5168069734</v>
       </c>
       <c r="D534" t="n">
-        <v>4701928710</v>
+        <v>4700691307</v>
       </c>
     </row>
     <row r="535">
@@ -8968,13 +8968,13 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>11758155599</v>
+        <v>11759979323</v>
       </c>
       <c r="C535" t="n">
-        <v>5168627000</v>
+        <v>5168736680</v>
       </c>
       <c r="D535" t="n">
-        <v>4703512284</v>
+        <v>4702275156</v>
       </c>
     </row>
     <row r="536">
@@ -8984,13 +8984,13 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>11767656580</v>
+        <v>11769488060</v>
       </c>
       <c r="C536" t="n">
-        <v>5169823668</v>
+        <v>5169933551</v>
       </c>
       <c r="D536" t="n">
-        <v>4705745224</v>
+        <v>4704508455</v>
       </c>
     </row>
     <row r="537">
@@ -9000,13 +9000,13 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>11772356931</v>
+        <v>11774192375</v>
       </c>
       <c r="C537" t="n">
-        <v>5170441374</v>
+        <v>5170551345</v>
       </c>
       <c r="D537" t="n">
-        <v>4707249761</v>
+        <v>4706013160</v>
       </c>
     </row>
     <row r="538">
@@ -9016,13 +9016,13 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>11789084489</v>
+        <v>11790921146</v>
       </c>
       <c r="C538" t="n">
-        <v>5175774479</v>
+        <v>5175884515</v>
       </c>
       <c r="D538" t="n">
-        <v>4713326336</v>
+        <v>4712089816</v>
       </c>
     </row>
     <row r="539">
@@ -9032,13 +9032,13 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>11794027456</v>
+        <v>11795867713</v>
       </c>
       <c r="C539" t="n">
-        <v>5176151799</v>
+        <v>5176262063</v>
       </c>
       <c r="D539" t="n">
-        <v>4714549222</v>
+        <v>4713312983</v>
       </c>
     </row>
     <row r="540">
@@ -9048,13 +9048,13 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>11802942155</v>
+        <v>11804789633</v>
       </c>
       <c r="C540" t="n">
-        <v>5177308362</v>
+        <v>5177418816</v>
       </c>
       <c r="D540" t="n">
-        <v>4718055987</v>
+        <v>4716820242</v>
       </c>
     </row>
     <row r="541">
@@ -9064,13 +9064,13 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>11808227858</v>
+        <v>11810081065</v>
       </c>
       <c r="C541" t="n">
-        <v>5177953781</v>
+        <v>5178064512</v>
       </c>
       <c r="D541" t="n">
-        <v>4719519223</v>
+        <v>4718283755</v>
       </c>
     </row>
     <row r="542">
@@ -9080,13 +9080,13 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>11815289933</v>
+        <v>11817150154</v>
       </c>
       <c r="C542" t="n">
-        <v>5179642062</v>
+        <v>5179753144</v>
       </c>
       <c r="D542" t="n">
-        <v>4722258783</v>
+        <v>4721023811</v>
       </c>
     </row>
     <row r="543">
@@ -9096,13 +9096,13 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>11822885826</v>
+        <v>11824755539</v>
       </c>
       <c r="C543" t="n">
-        <v>5180504943</v>
+        <v>5180582331</v>
       </c>
       <c r="D543" t="n">
-        <v>4724049519</v>
+        <v>4722815218</v>
       </c>
     </row>
     <row r="544">
@@ -9112,13 +9112,13 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>11828245437</v>
+        <v>11830119563</v>
       </c>
       <c r="C544" t="n">
-        <v>5181088599</v>
+        <v>5181166627</v>
       </c>
       <c r="D544" t="n">
-        <v>4725582522</v>
+        <v>4724348445</v>
       </c>
     </row>
     <row r="545">
@@ -9128,13 +9128,13 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>11837115417</v>
+        <v>11839075889</v>
       </c>
       <c r="C545" t="n">
-        <v>5191165839</v>
+        <v>5191284470</v>
       </c>
       <c r="D545" t="n">
-        <v>4736834965</v>
+        <v>4735211246</v>
       </c>
     </row>
     <row r="546">
@@ -9144,13 +9144,13 @@
         </is>
       </c>
       <c r="B546" t="n">
-        <v>11842706786</v>
+        <v>11844671767</v>
       </c>
       <c r="C546" t="n">
-        <v>5192618518</v>
+        <v>5192737312</v>
       </c>
       <c r="D546" t="n">
-        <v>4737908762</v>
+        <v>4736285382</v>
       </c>
     </row>
     <row r="547">
@@ -9160,13 +9160,13 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>11848503242</v>
+        <v>11850475023</v>
       </c>
       <c r="C547" t="n">
-        <v>5193316006</v>
+        <v>5193434998</v>
       </c>
       <c r="D547" t="n">
-        <v>4739697569</v>
+        <v>4738074719</v>
       </c>
     </row>
     <row r="548">
@@ -9176,13 +9176,13 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>11854372138</v>
+        <v>11856348547</v>
       </c>
       <c r="C548" t="n">
-        <v>5195184027</v>
+        <v>5195297626</v>
       </c>
       <c r="D548" t="n">
-        <v>4742792598</v>
+        <v>4741170718</v>
       </c>
     </row>
     <row r="549">
@@ -9192,13 +9192,13 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>11858120008</v>
+        <v>11860107431</v>
       </c>
       <c r="C549" t="n">
-        <v>5195551895</v>
+        <v>5195665837</v>
       </c>
       <c r="D549" t="n">
-        <v>4743515644</v>
+        <v>4741894598</v>
       </c>
     </row>
     <row r="550">
@@ -9208,13 +9208,13 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>11866663618</v>
+        <v>11868666066</v>
       </c>
       <c r="C550" t="n">
-        <v>5197622695</v>
+        <v>5197736928</v>
       </c>
       <c r="D550" t="n">
-        <v>4745870253</v>
+        <v>4744250143</v>
       </c>
     </row>
     <row r="551">
@@ -9224,13 +9224,13 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>11872592052</v>
+        <v>11874604049</v>
       </c>
       <c r="C551" t="n">
-        <v>5198365834</v>
+        <v>5198480981</v>
       </c>
       <c r="D551" t="n">
-        <v>4747584646</v>
+        <v>4745965748</v>
       </c>
     </row>
     <row r="552">
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>11886602998</v>
+        <v>11886026496</v>
       </c>
       <c r="C552" t="n">
-        <v>5208840573</v>
+        <v>5209060176</v>
       </c>
       <c r="D552" t="n">
-        <v>4751971962</v>
+        <v>4750867996</v>
       </c>
     </row>
     <row r="553">
@@ -9256,13 +9256,13 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>11893656456</v>
+        <v>11893093529</v>
       </c>
       <c r="C553" t="n">
-        <v>5209174935</v>
+        <v>5209395203</v>
       </c>
       <c r="D553" t="n">
-        <v>4752822642</v>
+        <v>4751719816</v>
       </c>
     </row>
     <row r="554">
@@ -9272,13 +9272,13 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>11913038607</v>
+        <v>11912494175</v>
       </c>
       <c r="C554" t="n">
-        <v>5209945637</v>
+        <v>5210166950</v>
       </c>
       <c r="D554" t="n">
-        <v>4754368105</v>
+        <v>4753266904</v>
       </c>
     </row>
     <row r="555">
@@ -9288,13 +9288,13 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>11925974732</v>
+        <v>11925453709</v>
       </c>
       <c r="C555" t="n">
-        <v>5212282504</v>
+        <v>5212501386</v>
       </c>
       <c r="D555" t="n">
-        <v>4757312873</v>
+        <v>4756214234</v>
       </c>
     </row>
     <row r="556">
@@ -9304,13 +9304,13 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>11932052250</v>
+        <v>11931619889</v>
       </c>
       <c r="C556" t="n">
-        <v>5212843943</v>
+        <v>5213070198</v>
       </c>
       <c r="D556" t="n">
-        <v>4759752615</v>
+        <v>4758664375</v>
       </c>
     </row>
     <row r="557">
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>11939229802</v>
+        <v>11938914806</v>
       </c>
       <c r="C557" t="n">
-        <v>5213716898</v>
+        <v>5213949910</v>
       </c>
       <c r="D557" t="n">
-        <v>4761386863</v>
+        <v>4760305666</v>
       </c>
     </row>
     <row r="558">
@@ -9336,13 +9336,13 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>11943927153</v>
+        <v>11943761351</v>
       </c>
       <c r="C558" t="n">
-        <v>5214155427</v>
+        <v>5214407010</v>
       </c>
       <c r="D558" t="n">
-        <v>4762736287</v>
+        <v>4761679348</v>
       </c>
     </row>
     <row r="559">
@@ -9352,13 +9352,13 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>11951423757</v>
+        <v>11951361139</v>
       </c>
       <c r="C559" t="n">
-        <v>5214874078</v>
+        <v>5215136183</v>
       </c>
       <c r="D559" t="n">
-        <v>4764366766</v>
+        <v>4763325598</v>
       </c>
     </row>
     <row r="560">
@@ -9368,13 +9368,13 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>11956221146</v>
+        <v>11956623428</v>
       </c>
       <c r="C560" t="n">
-        <v>5215405530</v>
+        <v>5215902179</v>
       </c>
       <c r="D560" t="n">
-        <v>4765670999</v>
+        <v>4764777321</v>
       </c>
     </row>
     <row r="561">
@@ -9384,13 +9384,13 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>11963309094</v>
+        <v>11964042078</v>
       </c>
       <c r="C561" t="n">
-        <v>5217266013</v>
+        <v>5217794308</v>
       </c>
       <c r="D561" t="n">
-        <v>4767737742</v>
+        <v>4766883317</v>
       </c>
     </row>
     <row r="562">
@@ -9400,13 +9400,13 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>11975816368</v>
+        <v>11971686643</v>
       </c>
       <c r="C562" t="n">
-        <v>5218864977</v>
+        <v>5218717808</v>
       </c>
       <c r="D562" t="n">
-        <v>4770526681</v>
+        <v>4768887795</v>
       </c>
     </row>
     <row r="563">
@@ -9416,13 +9416,157 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>11979131393</v>
+        <v>11978032489</v>
       </c>
       <c r="C563" t="n">
-        <v>5219265357</v>
+        <v>5220887247</v>
       </c>
       <c r="D563" t="n">
-        <v>4771792514</v>
+        <v>4772314595</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>11984859593</v>
+      </c>
+      <c r="C564" t="n">
+        <v>5221743073</v>
+      </c>
+      <c r="D564" t="n">
+        <v>4774286758</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>11990272347</v>
+      </c>
+      <c r="C565" t="n">
+        <v>5222485536</v>
+      </c>
+      <c r="D565" t="n">
+        <v>4775830030</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>11993481987</v>
+      </c>
+      <c r="C566" t="n">
+        <v>5222852443</v>
+      </c>
+      <c r="D566" t="n">
+        <v>4776861424</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>11997884015</v>
+      </c>
+      <c r="C567" t="n">
+        <v>5223469291</v>
+      </c>
+      <c r="D567" t="n">
+        <v>4777893042</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>12008514137</v>
+      </c>
+      <c r="C568" t="n">
+        <v>5224689615</v>
+      </c>
+      <c r="D568" t="n">
+        <v>4780131942</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>12014050425</v>
+      </c>
+      <c r="C569" t="n">
+        <v>5225131428</v>
+      </c>
+      <c r="D569" t="n">
+        <v>4781818947</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>12019156320</v>
+      </c>
+      <c r="C570" t="n">
+        <v>5226634210</v>
+      </c>
+      <c r="D570" t="n">
+        <v>4784051736</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>12027039744</v>
+      </c>
+      <c r="C571" t="n">
+        <v>5227569889</v>
+      </c>
+      <c r="D571" t="n">
+        <v>4786171104</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>12030468829</v>
+      </c>
+      <c r="C572" t="n">
+        <v>5227932261</v>
+      </c>
+      <c r="D572" t="n">
+        <v>4787404327</v>
       </c>
     </row>
   </sheetData>
